--- a/mysite/hello.xlsx
+++ b/mysite/hello.xlsx
@@ -76,673 +76,673 @@
     <t>peter.flaman@enbridge.com</t>
   </si>
   <si>
+    <t>darrell.skinner5@gmail.com</t>
+  </si>
+  <si>
+    <t>jledden@metalogicinspection.com</t>
+  </si>
+  <si>
+    <t>gford@metalogicinspection.com</t>
+  </si>
+  <si>
+    <t>egbewand@ualberta.ca</t>
+  </si>
+  <si>
+    <t>derryckm@gmail.com</t>
+  </si>
+  <si>
+    <t>dheuston@ndtgroup.ca</t>
+  </si>
+  <si>
+    <t>jhetu@ndtgroup.ca</t>
+  </si>
+  <si>
+    <t>lebarrozo@gmail.com</t>
+  </si>
+  <si>
+    <t>hamed.faghihi@opg.com</t>
+  </si>
+  <si>
+    <t>twillier@metalogicinspection.com</t>
+  </si>
+  <si>
+    <t>roger.fourny@shaw.ca</t>
+  </si>
+  <si>
+    <t>josh_spencer@transcanada.com</t>
+  </si>
+  <si>
+    <t>dstrabel@telus.net</t>
+  </si>
+  <si>
+    <t>dalsaunders@gmail.com</t>
+  </si>
+  <si>
+    <t>justin.knutsen@metalogicinspection.com</t>
+  </si>
+  <si>
+    <t>brook.althouse@arcanite-ndt.com</t>
+  </si>
+  <si>
+    <t>maurolcardoso@gmail.com</t>
+  </si>
+  <si>
+    <t>k.ndt2008@gmail.com</t>
+  </si>
+  <si>
+    <t>joseph.konopka@mistrasgroup.com</t>
+  </si>
+  <si>
+    <t>mfc_98@hotmail.com</t>
+  </si>
+  <si>
+    <t>ivanelsonogueira36@gmail.com</t>
+  </si>
+  <si>
+    <t>Paulo.Gaviria@enbridge.com</t>
+  </si>
+  <si>
+    <t>Sohail.anwar@cnrl.com</t>
+  </si>
+  <si>
+    <t>Nathan.Schuler@cnrl.com</t>
+  </si>
+  <si>
+    <t>Gengsheng.Weng@cnrl.com</t>
+  </si>
+  <si>
+    <t>mwgumb@bwxt.com</t>
+  </si>
+  <si>
+    <t>janalizadeh@gmail.com</t>
+  </si>
+  <si>
+    <t>homayoun.javadi@tescan.ca</t>
+  </si>
+  <si>
+    <t>noelson.amaral@gmail.com</t>
+  </si>
+  <si>
+    <t>Alex.Arrau@cnrl.com</t>
+  </si>
+  <si>
+    <t>natanoel04@hotmail.com</t>
+  </si>
+  <si>
+    <t>elaflamme@nucleom.ca</t>
+  </si>
+  <si>
+    <t>lucioinspetordm2@gmail.com</t>
+  </si>
+  <si>
+    <t>ideraldo.tiburcio@sbmoffshore.com</t>
+  </si>
+  <si>
+    <t>fatihy100@gmail.com</t>
+  </si>
+  <si>
+    <t>alberto.oliveira@sbmoffshore.com</t>
+  </si>
+  <si>
+    <t>Mandy.Nelson@cnrl.com</t>
+  </si>
+  <si>
+    <t>marcelo.borchert@sbmoffshore.com</t>
+  </si>
+  <si>
+    <t>cesar.valero@repsol.com</t>
+  </si>
+  <si>
+    <t>Ryan.Faubert@enbridge.com</t>
+  </si>
+  <si>
+    <t>Mike.Cook@sbdinc.com</t>
+  </si>
+  <si>
+    <t>robertopintocq@gmail.com</t>
+  </si>
+  <si>
+    <t>marco.venne@gmail.com</t>
+  </si>
+  <si>
+    <t>Udaya.Sundar@cnrl.com</t>
+  </si>
+  <si>
+    <t>johnyboyaz@gmail.com</t>
+  </si>
+  <si>
+    <t>diego.gomes@me.com</t>
+  </si>
+  <si>
+    <t>Tylor.Arguin@wav.ca</t>
+  </si>
+  <si>
+    <t>naldenir.amaral@gmail.com</t>
+  </si>
+  <si>
+    <t>james.nimijohn@enbridge.com</t>
+  </si>
+  <si>
+    <t>Ybehnamian@gmail.com</t>
+  </si>
+  <si>
+    <t>chrisdleslie@outlook.com</t>
+  </si>
+  <si>
+    <t>Mojtaba.ghaderi60@gmail.com</t>
+  </si>
+  <si>
+    <t>Saeed.Farea@cnrl.com</t>
+  </si>
+  <si>
+    <t>tysonosmond@msn.com</t>
+  </si>
+  <si>
+    <t>Aaron.Ringer@tdwilliamson.com</t>
+  </si>
+  <si>
+    <t>alex.bp@oi.com.br</t>
+  </si>
+  <si>
+    <t>Michael.Brault@irisndt.com</t>
+  </si>
+  <si>
+    <t>timnelson155@msn.com</t>
+  </si>
+  <si>
+    <t>ebx.consultoria@gmail.com</t>
+  </si>
+  <si>
+    <t>marko.alekszity@gmail.com</t>
+  </si>
+  <si>
+    <t>rthomson@bwxt.com</t>
+  </si>
+  <si>
+    <t>jodland@tiltinspection.com</t>
+  </si>
+  <si>
+    <t>ssinger@acuren.com</t>
+  </si>
+  <si>
+    <t>renatokow@hotmail.com</t>
+  </si>
+  <si>
+    <t>noelfer@gmail.com</t>
+  </si>
+  <si>
+    <t>abkhan8998@gmail.com</t>
+  </si>
+  <si>
+    <t>Brian.Purves@wav.ca</t>
+  </si>
+  <si>
+    <t>kelly.norman@wav.ca</t>
+  </si>
+  <si>
+    <t>mohammad.koochak@gmail.com</t>
+  </si>
+  <si>
+    <t>doubrumm@gmail.com</t>
+  </si>
+  <si>
+    <t>rgarcia@ndtgroup.ca</t>
+  </si>
+  <si>
+    <t>cforero@ndtgroup.ca</t>
+  </si>
+  <si>
+    <t>paul.spencer@applusrtd.com</t>
+  </si>
+  <si>
+    <t>VPopov@nucleom.ca</t>
+  </si>
+  <si>
+    <t>robertgwif@yahoo.com.br</t>
+  </si>
+  <si>
+    <t>rajasengodan55@gmail.com</t>
+  </si>
+  <si>
+    <t>weston.ellis@opg.com</t>
+  </si>
+  <si>
+    <t>john.reardon@opg.com</t>
+  </si>
+  <si>
+    <t>insptonelli@hotmail.com</t>
+  </si>
+  <si>
+    <t>greg.braham@caveinspection.com</t>
+  </si>
+  <si>
+    <t>nunomcmarques@hotmail.com</t>
+  </si>
+  <si>
+    <t>levikitt@live.ca</t>
+  </si>
+  <si>
+    <t>garret.elkins@gmail.com</t>
+  </si>
+  <si>
+    <t>eng.aandrade@gmail.com</t>
+  </si>
+  <si>
+    <t>Jaeger.Lonsdale@sbdinc.com</t>
+  </si>
+  <si>
+    <t>logan.campbell@enbridge.com</t>
+  </si>
+  <si>
+    <t>Bradley.Kuntz@enbridge.com</t>
+  </si>
+  <si>
+    <t>Jay.Brooks@enbridge.com</t>
+  </si>
+  <si>
+    <t>amirghabraee@yahoo.com</t>
+  </si>
+  <si>
+    <t>Jnsmith@bwxt.com</t>
+  </si>
+  <si>
+    <t>wcpamer@bwxt.com</t>
+  </si>
+  <si>
+    <t>doug.desruisseaux@enbridge.com</t>
+  </si>
+  <si>
+    <t>alexandre_borchert@hotmail.com</t>
+  </si>
+  <si>
+    <t>Sheryl.vanderfluit@mistrasgroup.com</t>
+  </si>
+  <si>
+    <t>Essam.E.Elnahrawy@lngcanada.ca</t>
+  </si>
+  <si>
+    <t>Hisham.Madi@cnrl.com</t>
+  </si>
+  <si>
+    <t>Craig.McMeeken@wav.ca</t>
+  </si>
+  <si>
+    <t>dinghaifeng8888@hotmail.com</t>
+  </si>
+  <si>
+    <t>Muhammad.Akbar@cnrl.com</t>
+  </si>
+  <si>
+    <t>practitionerinspection@gmail.com</t>
+  </si>
+  <si>
+    <t>jtreacy@its-ndt.com</t>
+  </si>
+  <si>
+    <t>dana.martin@opg.com</t>
+  </si>
+  <si>
+    <t>dale.berezan@applusrtd.com</t>
+  </si>
+  <si>
+    <t>jian-zhao@hotmail.com</t>
+  </si>
+  <si>
+    <t>calvinkboyle@gmail.com</t>
+  </si>
+  <si>
+    <t>Anand.Palani@cnrl.com</t>
+  </si>
+  <si>
+    <t>patrick.lannigan@brucepower.com</t>
+  </si>
+  <si>
+    <t>chabouni.djr@gmail.com</t>
+  </si>
+  <si>
+    <t>derrick.watson@brucepower.com</t>
+  </si>
+  <si>
+    <t>scott.bangs@brucepower.com</t>
+  </si>
+  <si>
+    <t>John.Adigun@cnrl.com</t>
+  </si>
+  <si>
+    <t>Perry.Lawless@cnrl.com</t>
+  </si>
+  <si>
+    <t>Zawar.Muhammad@cnrl.com</t>
+  </si>
+  <si>
+    <t>Ayo.Salaudeen@cnrl.com</t>
+  </si>
+  <si>
+    <t>jonathan.Uhlman@cnrl.com</t>
+  </si>
+  <si>
+    <t>Syed.Raza@cnrl.com</t>
+  </si>
+  <si>
+    <t>Waleed.Rafiq@cnrl.com</t>
+  </si>
+  <si>
+    <t>douglamarre@sympatico.ca</t>
+  </si>
+  <si>
+    <t>b_ilkuf@hotmail.com</t>
+  </si>
+  <si>
+    <t>tyler.rickard@enbridge.com</t>
+  </si>
+  <si>
+    <t>owen.nicol@enbridge.com</t>
+  </si>
+  <si>
+    <t>scott.robinson@enbridge.com</t>
+  </si>
+  <si>
+    <t>Stephen.Orser@cnrl.com</t>
+  </si>
+  <si>
+    <t>Qaiser.Butt@cnrl.com</t>
+  </si>
+  <si>
+    <t>r.hoffmann@rae.com</t>
+  </si>
+  <si>
+    <t>j.lawson@opg.com</t>
+  </si>
+  <si>
+    <t>darryl.czajkowski@opg.com</t>
+  </si>
+  <si>
+    <t>Hassan.Sattar@cnrl.com</t>
+  </si>
+  <si>
+    <t>eng.ndt@yahoo.com</t>
+  </si>
+  <si>
+    <t>Alexie.Broddy@cnrl.com</t>
+  </si>
+  <si>
+    <t>cchartier@ndtgroup.ca</t>
+  </si>
+  <si>
+    <t>h.herrera@rae.com</t>
+  </si>
+  <si>
+    <t>Marat.Kireev@cnrl.com</t>
+  </si>
+  <si>
+    <t>humbraganca@hotmail.com</t>
+  </si>
+  <si>
+    <t>ssusac@ndtgroup.ca</t>
+  </si>
+  <si>
+    <t>jmay@ndtgroup.ca</t>
+  </si>
+  <si>
+    <t>flokinn_coq@hotmail.com</t>
+  </si>
+  <si>
+    <t>anderson.ferraz@sbmoffshore.com</t>
+  </si>
+  <si>
+    <t>awallace441@gmail.com</t>
+  </si>
+  <si>
+    <t>matt.fritz@arcanite-ndt.com</t>
+  </si>
+  <si>
+    <t>joel.djordjevic@arcanite-ndt.com</t>
+  </si>
+  <si>
+    <t>nic.shoebridge@enbridge.com</t>
+  </si>
+  <si>
+    <t>hossein.taheri8067@gmail.com</t>
+  </si>
+  <si>
+    <t>jsaint@metalogicinspection.com</t>
+  </si>
+  <si>
+    <t>nrweston@anodendt.ca</t>
+  </si>
+  <si>
+    <t>shawn.hanrahan@opg.com</t>
+  </si>
+  <si>
+    <t>daniel.norman@opg.com</t>
+  </si>
+  <si>
+    <t>Dean.Ikert@enbridge.com</t>
+  </si>
+  <si>
+    <t>ryan.ziefflie@enbridge.com</t>
+  </si>
+  <si>
+    <t>jesse.rempel@enbridge.com</t>
+  </si>
+  <si>
+    <t>ewhite@ndtgroup.ca</t>
+  </si>
+  <si>
+    <t>nikhilsatheesan@outlook.com</t>
+  </si>
+  <si>
+    <t>karandeepgill760@gmail.com</t>
+  </si>
+  <si>
+    <t>andersonreisssilva@gmail.com</t>
+  </si>
+  <si>
+    <t>carl.gerbrandt@wav.ca</t>
+  </si>
+  <si>
+    <t>rackitndt@outlook.com</t>
+  </si>
+  <si>
+    <t>briancable40@gmail.com</t>
+  </si>
+  <si>
+    <t>collin.coffey@mantech.com</t>
+  </si>
+  <si>
+    <t>gabriell_008@hotmail.com</t>
+  </si>
+  <si>
+    <t>Curtis.behnke@enbridge.com</t>
+  </si>
+  <si>
+    <t>petronio@petrobras.com.br</t>
+  </si>
+  <si>
+    <t>vinicius.bogos@gmail.com</t>
+  </si>
+  <si>
+    <t>gabrielvfortes@gmail.com</t>
+  </si>
+  <si>
+    <t>jeehmorais89@gmail.com</t>
+  </si>
+  <si>
+    <t>colbyritzut@gmail.com</t>
+  </si>
+  <si>
+    <t>devon.algera@opg.com</t>
+  </si>
+  <si>
+    <t>michelle.fry@opg.com</t>
+  </si>
+  <si>
+    <t>sean.villeneuve@opg.com</t>
+  </si>
+  <si>
+    <t>barry.giasson@opg.com</t>
+  </si>
+  <si>
+    <t>Jarratt.Bilodeau@StuartOlson.com</t>
+  </si>
+  <si>
+    <t>julionunescosta@gmail.com</t>
+  </si>
+  <si>
+    <t>eng.douglaswilson@yahoo.com.br</t>
+  </si>
+  <si>
+    <t>fernando.grigolato@outlook.com</t>
+  </si>
+  <si>
+    <t>brendanmatthews@mail.com</t>
+  </si>
+  <si>
+    <t>a.beckman94@hotmail.com</t>
+  </si>
+  <si>
+    <t>limogesjon@gmail.com</t>
+  </si>
+  <si>
+    <t>marcel@strauhs.com.br</t>
+  </si>
+  <si>
+    <t>gina.mc@jgmservices.ca</t>
+  </si>
+  <si>
+    <t>taylor.gardiner@applusrtd.com</t>
+  </si>
+  <si>
+    <t>thiago_claro@hotmail.com</t>
+  </si>
+  <si>
+    <t>srsouzapinto@gmail.com</t>
+  </si>
+  <si>
+    <t>nickolas.lau@brucepower.com</t>
+  </si>
+  <si>
+    <t>qualidade.daniel@gmail.com</t>
+  </si>
+  <si>
+    <t>leonc_rj@yahoo.com.br</t>
+  </si>
+  <si>
+    <t>nathaliasg.fr@hotmail.com</t>
+  </si>
+  <si>
+    <t>ferrerinsp@gmail.com</t>
+  </si>
+  <si>
+    <t>pedro_augusto27@hotmail.com</t>
+  </si>
+  <si>
+    <t>lacianelli@hotmail.com</t>
+  </si>
+  <si>
+    <t>tom.kroeker@enbridge.com</t>
+  </si>
+  <si>
+    <t>chaboki.ali@gmail.com</t>
+  </si>
+  <si>
+    <t>paul.burton@opg.com</t>
+  </si>
+  <si>
+    <t>vanderlei_nogueira@hotmail.com</t>
+  </si>
+  <si>
+    <t>Vptamy@gmail.com</t>
+  </si>
+  <si>
+    <t>brunoinsp@hotmail.com</t>
+  </si>
+  <si>
+    <t>felipe@orionsic.com.br</t>
+  </si>
+  <si>
+    <t>diegom.silva@outlook.com</t>
+  </si>
+  <si>
+    <t>sa-jailson@hotmail.com</t>
+  </si>
+  <si>
+    <t>rodrigostohler@gmail.com</t>
+  </si>
+  <si>
+    <t>yingsong.wu@applusrtd.com</t>
+  </si>
+  <si>
+    <t>jrhilson16@gmail.com</t>
+  </si>
+  <si>
+    <t>jackbloy@gmail.com</t>
+  </si>
+  <si>
+    <t>fqlara@gmail.com</t>
+  </si>
+  <si>
+    <t>gmalmeida@isgbrasil.com.br</t>
+  </si>
+  <si>
+    <t>annyscordeiro@gmail.com</t>
+  </si>
+  <si>
+    <t>oko.oono@gmail.com</t>
+  </si>
+  <si>
+    <t>mendoncalon@gmail.com</t>
+  </si>
+  <si>
+    <t>felipecadiente@gmail.com</t>
+  </si>
+  <si>
+    <t>soheyltahan@gmail.com</t>
+  </si>
+  <si>
+    <t>eric.scott999@gmail.com</t>
+  </si>
+  <si>
+    <t>marcelo.dimensional@gmail.com</t>
+  </si>
+  <si>
+    <t>xrayedit23@hotmail.com</t>
+  </si>
+  <si>
+    <t>mark.wainman@opg.com</t>
+  </si>
+  <si>
+    <t>christopher.wood@opg.com</t>
+  </si>
+  <si>
+    <t>frank.santana@opg.com</t>
+  </si>
+  <si>
+    <t>kejqual@telusplanet.net</t>
+  </si>
+  <si>
+    <t>bzieger@metalogicinspection.com</t>
+  </si>
+  <si>
     <t>alex.butcher@brucepower.com</t>
   </si>
   <si>
-    <t>darrell.skinner5@gmail.com</t>
-  </si>
-  <si>
-    <t>jledden@metalogicinspection.com</t>
-  </si>
-  <si>
-    <t>gford@metalogicinspection.com</t>
-  </si>
-  <si>
-    <t>egbewand@ualberta.ca</t>
-  </si>
-  <si>
-    <t>derryckm@gmail.com</t>
-  </si>
-  <si>
-    <t>dheuston@ndtgroup.ca</t>
-  </si>
-  <si>
-    <t>jhetu@ndtgroup.ca</t>
-  </si>
-  <si>
-    <t>lebarrozo@gmail.com</t>
-  </si>
-  <si>
-    <t>hamed.faghihi@opg.com</t>
-  </si>
-  <si>
-    <t>twillier@metalogicinspection.com</t>
-  </si>
-  <si>
-    <t>roger.fourny@shaw.ca</t>
-  </si>
-  <si>
-    <t>josh_spencer@transcanada.com</t>
-  </si>
-  <si>
-    <t>dstrabel@telus.net</t>
-  </si>
-  <si>
-    <t>dalsaunders@gmail.com</t>
-  </si>
-  <si>
-    <t>justin.knutsen@metalogicinspection.com</t>
-  </si>
-  <si>
-    <t>brook.althouse@arcanite-ndt.com</t>
-  </si>
-  <si>
-    <t>maurolcardoso@gmail.com</t>
-  </si>
-  <si>
-    <t>k.ndt2008@gmail.com</t>
-  </si>
-  <si>
-    <t>joseph.konopka@mistrasgroup.com</t>
-  </si>
-  <si>
-    <t>mfc_98@hotmail.com</t>
-  </si>
-  <si>
-    <t>ivanelsonogueira36@gmail.com</t>
-  </si>
-  <si>
-    <t>Paulo.Gaviria@enbridge.com</t>
-  </si>
-  <si>
-    <t>Sohail.anwar@cnrl.com</t>
-  </si>
-  <si>
-    <t>Nathan.Schuler@cnrl.com</t>
-  </si>
-  <si>
-    <t>Gengsheng.Weng@cnrl.com</t>
-  </si>
-  <si>
-    <t>mwgumb@bwxt.com</t>
-  </si>
-  <si>
-    <t>janalizadeh@gmail.com</t>
-  </si>
-  <si>
-    <t>homayoun.javadi@tescan.ca</t>
-  </si>
-  <si>
-    <t>noelson.amaral@gmail.com</t>
-  </si>
-  <si>
-    <t>Alex.Arrau@cnrl.com</t>
-  </si>
-  <si>
-    <t>natanoel04@hotmail.com</t>
-  </si>
-  <si>
-    <t>elaflamme@nucleom.ca</t>
-  </si>
-  <si>
-    <t>lucioinspetordm2@gmail.com</t>
-  </si>
-  <si>
-    <t>ideraldo.tiburcio@sbmoffshore.com</t>
-  </si>
-  <si>
-    <t>fatihy100@gmail.com</t>
-  </si>
-  <si>
-    <t>alberto.oliveira@sbmoffshore.com</t>
-  </si>
-  <si>
-    <t>Mandy.Nelson@cnrl.com</t>
-  </si>
-  <si>
-    <t>marcelo.borchert@sbmoffshore.com</t>
-  </si>
-  <si>
-    <t>cesar.valero@repsol.com</t>
-  </si>
-  <si>
-    <t>Ryan.Faubert@enbridge.com</t>
-  </si>
-  <si>
-    <t>Mike.Cook@sbdinc.com</t>
-  </si>
-  <si>
-    <t>robertopintocq@gmail.com</t>
-  </si>
-  <si>
-    <t>marco.venne@gmail.com</t>
-  </si>
-  <si>
-    <t>Udaya.Sundar@cnrl.com</t>
-  </si>
-  <si>
-    <t>johnyboyaz@gmail.com</t>
-  </si>
-  <si>
-    <t>diego.gomes@me.com</t>
-  </si>
-  <si>
-    <t>Tylor.Arguin@wav.ca</t>
-  </si>
-  <si>
-    <t>naldenir.amaral@gmail.com</t>
-  </si>
-  <si>
-    <t>james.nimijohn@enbridge.com</t>
-  </si>
-  <si>
-    <t>Ybehnamian@gmail.com</t>
-  </si>
-  <si>
-    <t>chrisdleslie@outlook.com</t>
-  </si>
-  <si>
-    <t>Mojtaba.ghaderi60@gmail.com</t>
-  </si>
-  <si>
-    <t>Saeed.Farea@cnrl.com</t>
-  </si>
-  <si>
-    <t>tysonosmond@msn.com</t>
-  </si>
-  <si>
-    <t>Aaron.Ringer@tdwilliamson.com</t>
-  </si>
-  <si>
-    <t>alex.bp@oi.com.br</t>
-  </si>
-  <si>
-    <t>Michael.Brault@irisndt.com</t>
-  </si>
-  <si>
-    <t>timnelson155@msn.com</t>
-  </si>
-  <si>
-    <t>ebx.consultoria@gmail.com</t>
-  </si>
-  <si>
-    <t>marko.alekszity@gmail.com</t>
-  </si>
-  <si>
-    <t>rthomson@bwxt.com</t>
-  </si>
-  <si>
-    <t>jodland@tiltinspection.com</t>
-  </si>
-  <si>
-    <t>ssinger@acuren.com</t>
-  </si>
-  <si>
-    <t>renatokow@hotmail.com</t>
-  </si>
-  <si>
-    <t>noelfer@gmail.com</t>
-  </si>
-  <si>
-    <t>abkhan8998@gmail.com</t>
-  </si>
-  <si>
-    <t>Brian.Purves@wav.ca</t>
-  </si>
-  <si>
-    <t>kelly.norman@wav.ca</t>
-  </si>
-  <si>
-    <t>mohammad.koochak@gmail.com</t>
-  </si>
-  <si>
-    <t>doubrumm@gmail.com</t>
-  </si>
-  <si>
-    <t>rgarcia@ndtgroup.ca</t>
-  </si>
-  <si>
-    <t>cforero@ndtgroup.ca</t>
-  </si>
-  <si>
-    <t>paul.spencer@applusrtd.com</t>
-  </si>
-  <si>
-    <t>VPopov@nucleom.ca</t>
-  </si>
-  <si>
-    <t>robertgwif@yahoo.com.br</t>
-  </si>
-  <si>
-    <t>rajasengodan55@gmail.com</t>
-  </si>
-  <si>
-    <t>weston.ellis@opg.com</t>
-  </si>
-  <si>
-    <t>john.reardon@opg.com</t>
-  </si>
-  <si>
-    <t>insptonelli@hotmail.com</t>
-  </si>
-  <si>
-    <t>greg.braham@caveinspection.com</t>
-  </si>
-  <si>
-    <t>nunomcmarques@hotmail.com</t>
-  </si>
-  <si>
-    <t>levikitt@live.ca</t>
-  </si>
-  <si>
-    <t>garret.elkins@gmail.com</t>
-  </si>
-  <si>
-    <t>eng.aandrade@gmail.com</t>
-  </si>
-  <si>
-    <t>Jaeger.Lonsdale@sbdinc.com</t>
-  </si>
-  <si>
-    <t>logan.campbell@enbridge.com</t>
-  </si>
-  <si>
-    <t>Bradley.Kuntz@enbridge.com</t>
-  </si>
-  <si>
-    <t>Jay.Brooks@enbridge.com</t>
-  </si>
-  <si>
-    <t>amirghabraee@yahoo.com</t>
-  </si>
-  <si>
-    <t>Jnsmith@bwxt.com</t>
-  </si>
-  <si>
-    <t>wcpamer@bwxt.com</t>
-  </si>
-  <si>
-    <t>doug.desruisseaux@enbridge.com</t>
-  </si>
-  <si>
-    <t>alexandre_borchert@hotmail.com</t>
+    <t>carlb.soares@live.com</t>
+  </si>
+  <si>
+    <t>marcus.accon@gmail.com</t>
+  </si>
+  <si>
+    <t>brock.vangaver@enbridge.com</t>
+  </si>
+  <si>
+    <t>bhardwajmehta22@gmail.com</t>
+  </si>
+  <si>
+    <t>blake.macpherson@enbridge.com</t>
   </si>
   <si>
     <t>Ben.Ren@cnrl.com</t>
-  </si>
-  <si>
-    <t>Sheryl.vanderfluit@mistrasgroup.com</t>
-  </si>
-  <si>
-    <t>patrick.lannigan@brucepower.com</t>
-  </si>
-  <si>
-    <t>Essam.E.Elnahrawy@lngcanada.ca</t>
-  </si>
-  <si>
-    <t>Hisham.Madi@cnrl.com</t>
-  </si>
-  <si>
-    <t>Craig.McMeeken@wav.ca</t>
-  </si>
-  <si>
-    <t>dinghaifeng8888@hotmail.com</t>
-  </si>
-  <si>
-    <t>Muhammad.Akbar@cnrl.com</t>
-  </si>
-  <si>
-    <t>practitionerinspection@gmail.com</t>
-  </si>
-  <si>
-    <t>jtreacy@its-ndt.com</t>
-  </si>
-  <si>
-    <t>dana.martin@opg.com</t>
-  </si>
-  <si>
-    <t>chabouni.djr@gmail.com</t>
-  </si>
-  <si>
-    <t>dale.berezan@applusrtd.com</t>
-  </si>
-  <si>
-    <t>jian-zhao@hotmail.com</t>
-  </si>
-  <si>
-    <t>calvinkboyle@gmail.com</t>
-  </si>
-  <si>
-    <t>Anand.Palani@cnrl.com</t>
-  </si>
-  <si>
-    <t>derrick.watson@brucepower.com</t>
-  </si>
-  <si>
-    <t>scott.bangs@brucepower.com</t>
-  </si>
-  <si>
-    <t>John.Adigun@cnrl.com</t>
-  </si>
-  <si>
-    <t>Perry.Lawless@cnrl.com</t>
-  </si>
-  <si>
-    <t>Zawar.Muhammad@cnrl.com</t>
-  </si>
-  <si>
-    <t>Ayo.Salaudeen@cnrl.com</t>
-  </si>
-  <si>
-    <t>jonathan.Uhlman@cnrl.com</t>
-  </si>
-  <si>
-    <t>Syed.Raza@cnrl.com</t>
-  </si>
-  <si>
-    <t>Waleed.Rafiq@cnrl.com</t>
-  </si>
-  <si>
-    <t>douglamarre@sympatico.ca</t>
-  </si>
-  <si>
-    <t>b_ilkuf@hotmail.com</t>
-  </si>
-  <si>
-    <t>tyler.rickard@enbridge.com</t>
-  </si>
-  <si>
-    <t>owen.nicol@enbridge.com</t>
-  </si>
-  <si>
-    <t>scott.robinson@enbridge.com</t>
-  </si>
-  <si>
-    <t>Stephen.Orser@cnrl.com</t>
-  </si>
-  <si>
-    <t>Qaiser.Butt@cnrl.com</t>
-  </si>
-  <si>
-    <t>r.hoffmann@rae.com</t>
-  </si>
-  <si>
-    <t>j.lawson@opg.com</t>
-  </si>
-  <si>
-    <t>darryl.czajkowski@opg.com</t>
-  </si>
-  <si>
-    <t>Hassan.Sattar@cnrl.com</t>
-  </si>
-  <si>
-    <t>Marat.Kireev@cnrl.com</t>
-  </si>
-  <si>
-    <t>blake.macpherson@enbridge.com</t>
-  </si>
-  <si>
-    <t>eng.ndt@yahoo.com</t>
-  </si>
-  <si>
-    <t>Alexie.Broddy@cnrl.com</t>
-  </si>
-  <si>
-    <t>cchartier@ndtgroup.ca</t>
-  </si>
-  <si>
-    <t>h.herrera@rae.com</t>
-  </si>
-  <si>
-    <t>marcus.accon@gmail.com</t>
-  </si>
-  <si>
-    <t>humbraganca@hotmail.com</t>
-  </si>
-  <si>
-    <t>bzieger@metalogicinspection.com</t>
-  </si>
-  <si>
-    <t>ssusac@ndtgroup.ca</t>
-  </si>
-  <si>
-    <t>jmay@ndtgroup.ca</t>
-  </si>
-  <si>
-    <t>flokinn_coq@hotmail.com</t>
-  </si>
-  <si>
-    <t>anderson.ferraz@sbmoffshore.com</t>
-  </si>
-  <si>
-    <t>awallace441@gmail.com</t>
-  </si>
-  <si>
-    <t>matt.fritz@arcanite-ndt.com</t>
-  </si>
-  <si>
-    <t>joel.djordjevic@arcanite-ndt.com</t>
-  </si>
-  <si>
-    <t>nic.shoebridge@enbridge.com</t>
-  </si>
-  <si>
-    <t>hossein.taheri8067@gmail.com</t>
-  </si>
-  <si>
-    <t>jsaint@metalogicinspection.com</t>
-  </si>
-  <si>
-    <t>nrweston@anodendt.ca</t>
-  </si>
-  <si>
-    <t>rackitndt@outlook.com</t>
-  </si>
-  <si>
-    <t>shawn.hanrahan@opg.com</t>
-  </si>
-  <si>
-    <t>daniel.norman@opg.com</t>
-  </si>
-  <si>
-    <t>Dean.Ikert@enbridge.com</t>
-  </si>
-  <si>
-    <t>ryan.ziefflie@enbridge.com</t>
-  </si>
-  <si>
-    <t>jesse.rempel@enbridge.com</t>
-  </si>
-  <si>
-    <t>ewhite@ndtgroup.ca</t>
-  </si>
-  <si>
-    <t>nikhilsatheesan@outlook.com</t>
-  </si>
-  <si>
-    <t>karandeepgill760@gmail.com</t>
-  </si>
-  <si>
-    <t>andersonreisssilva@gmail.com</t>
-  </si>
-  <si>
-    <t>carl.gerbrandt@wav.ca</t>
-  </si>
-  <si>
-    <t>bhardwajmehta22@gmail.com</t>
-  </si>
-  <si>
-    <t>briancable40@gmail.com</t>
-  </si>
-  <si>
-    <t>collin.coffey@mantech.com</t>
-  </si>
-  <si>
-    <t>gabriell_008@hotmail.com</t>
-  </si>
-  <si>
-    <t>Curtis.behnke@enbridge.com</t>
-  </si>
-  <si>
-    <t>petronio@petrobras.com.br</t>
-  </si>
-  <si>
-    <t>vinicius.bogos@gmail.com</t>
-  </si>
-  <si>
-    <t>marcel@strauhs.com.br</t>
-  </si>
-  <si>
-    <t>gabrielvfortes@gmail.com</t>
-  </si>
-  <si>
-    <t>jeehmorais89@gmail.com</t>
-  </si>
-  <si>
-    <t>colbyritzut@gmail.com</t>
-  </si>
-  <si>
-    <t>devon.algera@opg.com</t>
-  </si>
-  <si>
-    <t>michelle.fry@opg.com</t>
-  </si>
-  <si>
-    <t>sean.villeneuve@opg.com</t>
-  </si>
-  <si>
-    <t>barry.giasson@opg.com</t>
-  </si>
-  <si>
-    <t>Jarratt.Bilodeau@StuartOlson.com</t>
-  </si>
-  <si>
-    <t>julionunescosta@gmail.com</t>
-  </si>
-  <si>
-    <t>eng.douglaswilson@yahoo.com.br</t>
-  </si>
-  <si>
-    <t>fernando.grigolato@outlook.com</t>
-  </si>
-  <si>
-    <t>limogesjon@gmail.com</t>
-  </si>
-  <si>
-    <t>brendanmatthews@mail.com</t>
-  </si>
-  <si>
-    <t>a.beckman94@hotmail.com</t>
-  </si>
-  <si>
-    <t>gina.mc@jgmservices.ca</t>
-  </si>
-  <si>
-    <t>taylor.gardiner@applusrtd.com</t>
-  </si>
-  <si>
-    <t>thiago_claro@hotmail.com</t>
-  </si>
-  <si>
-    <t>srsouzapinto@gmail.com</t>
-  </si>
-  <si>
-    <t>nickolas.lau@brucepower.com</t>
-  </si>
-  <si>
-    <t>qualidade.daniel@gmail.com</t>
-  </si>
-  <si>
-    <t>leonc_rj@yahoo.com.br</t>
-  </si>
-  <si>
-    <t>nathaliasg.fr@hotmail.com</t>
-  </si>
-  <si>
-    <t>ferrerinsp@gmail.com</t>
-  </si>
-  <si>
-    <t>pedro_augusto27@hotmail.com</t>
-  </si>
-  <si>
-    <t>lacianelli@hotmail.com</t>
-  </si>
-  <si>
-    <t>tom.kroeker@enbridge.com</t>
-  </si>
-  <si>
-    <t>chaboki.ali@gmail.com</t>
-  </si>
-  <si>
-    <t>paul.burton@opg.com</t>
-  </si>
-  <si>
-    <t>vanderlei_nogueira@hotmail.com</t>
-  </si>
-  <si>
-    <t>Vptamy@gmail.com</t>
-  </si>
-  <si>
-    <t>brunoinsp@hotmail.com</t>
-  </si>
-  <si>
-    <t>felipe@orionsic.com.br</t>
-  </si>
-  <si>
-    <t>diegom.silva@outlook.com</t>
-  </si>
-  <si>
-    <t>sa-jailson@hotmail.com</t>
-  </si>
-  <si>
-    <t>rodrigostohler@gmail.com</t>
-  </si>
-  <si>
-    <t>yingsong.wu@applusrtd.com</t>
-  </si>
-  <si>
-    <t>jrhilson16@gmail.com</t>
-  </si>
-  <si>
-    <t>jackbloy@gmail.com</t>
-  </si>
-  <si>
-    <t>fqlara@gmail.com</t>
-  </si>
-  <si>
-    <t>gmalmeida@isgbrasil.com.br</t>
-  </si>
-  <si>
-    <t>annyscordeiro@gmail.com</t>
-  </si>
-  <si>
-    <t>oko.oono@gmail.com</t>
-  </si>
-  <si>
-    <t>mendoncalon@gmail.com</t>
-  </si>
-  <si>
-    <t>felipecadiente@gmail.com</t>
-  </si>
-  <si>
-    <t>soheyltahan@gmail.com</t>
-  </si>
-  <si>
-    <t>eric.scott999@gmail.com</t>
-  </si>
-  <si>
-    <t>marcelo.dimensional@gmail.com</t>
-  </si>
-  <si>
-    <t>kejqual@telusplanet.net</t>
-  </si>
-  <si>
-    <t>xrayedit23@hotmail.com</t>
-  </si>
-  <si>
-    <t>mark.wainman@opg.com</t>
-  </si>
-  <si>
-    <t>christopher.wood@opg.com</t>
-  </si>
-  <si>
-    <t>frank.santana@opg.com</t>
-  </si>
-  <si>
-    <t>carlb.soares@live.com</t>
-  </si>
-  <si>
-    <t>brock.vangaver@enbridge.com</t>
   </si>
   <si>
     <t>bernardes.inspecoes@gmail.com</t>

--- a/mysite/hello.xlsx
+++ b/mysite/hello.xlsx
@@ -19,730 +19,730 @@
     <t>h_tazikeh@yahoo.com</t>
   </si>
   <si>
+    <t>dreimer.cgy@gmail.com</t>
+  </si>
+  <si>
+    <t>elohorakiri@gmail.com</t>
+  </si>
+  <si>
+    <t>darryl.fenner@arcanite-ndt.com</t>
+  </si>
+  <si>
+    <t>adam.watkins@enbridge.com</t>
+  </si>
+  <si>
+    <t>logan.toth@enbridge.com</t>
+  </si>
+  <si>
+    <t>maurilio.filho@sbmoffshore.com</t>
+  </si>
+  <si>
+    <t>brunobandeiram@hotmail.com</t>
+  </si>
+  <si>
+    <t>henrique.psouza@hotmail.com</t>
+  </si>
+  <si>
+    <t>david199130@gmail.com</t>
+  </si>
+  <si>
+    <t>luay.ahmed89@yahoo.com</t>
+  </si>
+  <si>
+    <t>amin.maki@gmail.com</t>
+  </si>
+  <si>
+    <t>amirbehvandi01747@gmail.com</t>
+  </si>
+  <si>
+    <t>rickertjohn@icloud.com</t>
+  </si>
+  <si>
+    <t>ben.li@mistrasgroup.com</t>
+  </si>
+  <si>
+    <t>huibin.hu@brucepower.com</t>
+  </si>
+  <si>
+    <t>robert.hindle@brucepower.com</t>
+  </si>
+  <si>
+    <t>dale.chadney@enbridge.com</t>
+  </si>
+  <si>
+    <t>peter.flaman@enbridge.com</t>
+  </si>
+  <si>
+    <t>darrell.skinner5@gmail.com</t>
+  </si>
+  <si>
+    <t>jledden@metalogicinspection.com</t>
+  </si>
+  <si>
+    <t>gford@metalogicinspection.com</t>
+  </si>
+  <si>
+    <t>egbewand@ualberta.ca</t>
+  </si>
+  <si>
+    <t>derryckm@gmail.com</t>
+  </si>
+  <si>
+    <t>dheuston@ndtgroup.ca</t>
+  </si>
+  <si>
+    <t>jhetu@ndtgroup.ca</t>
+  </si>
+  <si>
+    <t>lebarrozo@gmail.com</t>
+  </si>
+  <si>
+    <t>hamed.faghihi@opg.com</t>
+  </si>
+  <si>
+    <t>twillier@metalogicinspection.com</t>
+  </si>
+  <si>
+    <t>roger.fourny@shaw.ca</t>
+  </si>
+  <si>
+    <t>josh_spencer@transcanada.com</t>
+  </si>
+  <si>
+    <t>dstrabel@telus.net</t>
+  </si>
+  <si>
+    <t>dalsaunders@gmail.com</t>
+  </si>
+  <si>
+    <t>justin.knutsen@metalogicinspection.com</t>
+  </si>
+  <si>
+    <t>brook.althouse@arcanite-ndt.com</t>
+  </si>
+  <si>
+    <t>maurolcardoso@gmail.com</t>
+  </si>
+  <si>
+    <t>k.ndt2008@gmail.com</t>
+  </si>
+  <si>
+    <t>joseph.konopka@mistrasgroup.com</t>
+  </si>
+  <si>
+    <t>mfc_98@hotmail.com</t>
+  </si>
+  <si>
+    <t>ivanelsonogueira36@gmail.com</t>
+  </si>
+  <si>
+    <t>Paulo.Gaviria@enbridge.com</t>
+  </si>
+  <si>
+    <t>Sohail.anwar@cnrl.com</t>
+  </si>
+  <si>
+    <t>Nathan.Schuler@cnrl.com</t>
+  </si>
+  <si>
+    <t>Gengsheng.Weng@cnrl.com</t>
+  </si>
+  <si>
+    <t>mwgumb@bwxt.com</t>
+  </si>
+  <si>
+    <t>janalizadeh@gmail.com</t>
+  </si>
+  <si>
+    <t>homayoun.javadi@tescan.ca</t>
+  </si>
+  <si>
+    <t>noelson.amaral@gmail.com</t>
+  </si>
+  <si>
+    <t>Alex.Arrau@cnrl.com</t>
+  </si>
+  <si>
+    <t>natanoel04@hotmail.com</t>
+  </si>
+  <si>
+    <t>elaflamme@nucleom.ca</t>
+  </si>
+  <si>
+    <t>lucioinspetordm2@gmail.com</t>
+  </si>
+  <si>
+    <t>ideraldo.tiburcio@sbmoffshore.com</t>
+  </si>
+  <si>
+    <t>fatihy100@gmail.com</t>
+  </si>
+  <si>
+    <t>alberto.oliveira@sbmoffshore.com</t>
+  </si>
+  <si>
+    <t>Mandy.Nelson@cnrl.com</t>
+  </si>
+  <si>
+    <t>marcelo.borchert@sbmoffshore.com</t>
+  </si>
+  <si>
+    <t>cesar.valero@repsol.com</t>
+  </si>
+  <si>
+    <t>Ryan.Faubert@enbridge.com</t>
+  </si>
+  <si>
+    <t>Mike.Cook@sbdinc.com</t>
+  </si>
+  <si>
+    <t>robertopintocq@gmail.com</t>
+  </si>
+  <si>
+    <t>marco.venne@gmail.com</t>
+  </si>
+  <si>
+    <t>Udaya.Sundar@cnrl.com</t>
+  </si>
+  <si>
+    <t>johnyboyaz@gmail.com</t>
+  </si>
+  <si>
+    <t>diego.gomes@me.com</t>
+  </si>
+  <si>
+    <t>Tylor.Arguin@wav.ca</t>
+  </si>
+  <si>
+    <t>naldenir.amaral@gmail.com</t>
+  </si>
+  <si>
+    <t>james.nimijohn@enbridge.com</t>
+  </si>
+  <si>
+    <t>Ybehnamian@gmail.com</t>
+  </si>
+  <si>
+    <t>chrisdleslie@outlook.com</t>
+  </si>
+  <si>
+    <t>Mojtaba.ghaderi60@gmail.com</t>
+  </si>
+  <si>
+    <t>Saeed.Farea@cnrl.com</t>
+  </si>
+  <si>
+    <t>tysonosmond@msn.com</t>
+  </si>
+  <si>
+    <t>Aaron.Ringer@tdwilliamson.com</t>
+  </si>
+  <si>
+    <t>alex.bp@oi.com.br</t>
+  </si>
+  <si>
+    <t>Michael.Brault@irisndt.com</t>
+  </si>
+  <si>
+    <t>timnelson155@msn.com</t>
+  </si>
+  <si>
+    <t>ebx.consultoria@gmail.com</t>
+  </si>
+  <si>
+    <t>marko.alekszity@gmail.com</t>
+  </si>
+  <si>
+    <t>rthomson@bwxt.com</t>
+  </si>
+  <si>
+    <t>jodland@tiltinspection.com</t>
+  </si>
+  <si>
+    <t>ssinger@acuren.com</t>
+  </si>
+  <si>
+    <t>renatokow@hotmail.com</t>
+  </si>
+  <si>
+    <t>noelfer@gmail.com</t>
+  </si>
+  <si>
+    <t>abkhan8998@gmail.com</t>
+  </si>
+  <si>
+    <t>Brian.Purves@wav.ca</t>
+  </si>
+  <si>
+    <t>kelly.norman@wav.ca</t>
+  </si>
+  <si>
+    <t>mohammad.koochak@gmail.com</t>
+  </si>
+  <si>
+    <t>doubrumm@gmail.com</t>
+  </si>
+  <si>
+    <t>rgarcia@ndtgroup.ca</t>
+  </si>
+  <si>
+    <t>cforero@ndtgroup.ca</t>
+  </si>
+  <si>
+    <t>paul.spencer@applusrtd.com</t>
+  </si>
+  <si>
+    <t>VPopov@nucleom.ca</t>
+  </si>
+  <si>
+    <t>robertgwif@yahoo.com.br</t>
+  </si>
+  <si>
+    <t>rajasengodan55@gmail.com</t>
+  </si>
+  <si>
+    <t>weston.ellis@opg.com</t>
+  </si>
+  <si>
+    <t>john.reardon@opg.com</t>
+  </si>
+  <si>
+    <t>insptonelli@hotmail.com</t>
+  </si>
+  <si>
+    <t>greg.braham@caveinspection.com</t>
+  </si>
+  <si>
+    <t>nunomcmarques@hotmail.com</t>
+  </si>
+  <si>
+    <t>levikitt@live.ca</t>
+  </si>
+  <si>
+    <t>garret.elkins@gmail.com</t>
+  </si>
+  <si>
+    <t>eng.aandrade@gmail.com</t>
+  </si>
+  <si>
+    <t>Jaeger.Lonsdale@sbdinc.com</t>
+  </si>
+  <si>
+    <t>logan.campbell@enbridge.com</t>
+  </si>
+  <si>
+    <t>Bradley.Kuntz@enbridge.com</t>
+  </si>
+  <si>
+    <t>Jay.Brooks@enbridge.com</t>
+  </si>
+  <si>
+    <t>amirghabraee@yahoo.com</t>
+  </si>
+  <si>
+    <t>Jnsmith@bwxt.com</t>
+  </si>
+  <si>
+    <t>wcpamer@bwxt.com</t>
+  </si>
+  <si>
+    <t>doug.desruisseaux@enbridge.com</t>
+  </si>
+  <si>
+    <t>alexandre_borchert@hotmail.com</t>
+  </si>
+  <si>
+    <t>Sheryl.vanderfluit@mistrasgroup.com</t>
+  </si>
+  <si>
+    <t>Essam.E.Elnahrawy@lngcanada.ca</t>
+  </si>
+  <si>
+    <t>Hisham.Madi@cnrl.com</t>
+  </si>
+  <si>
+    <t>Craig.McMeeken@wav.ca</t>
+  </si>
+  <si>
+    <t>dinghaifeng8888@hotmail.com</t>
+  </si>
+  <si>
+    <t>Muhammad.Akbar@cnrl.com</t>
+  </si>
+  <si>
+    <t>practitionerinspection@gmail.com</t>
+  </si>
+  <si>
+    <t>jtreacy@its-ndt.com</t>
+  </si>
+  <si>
+    <t>dana.martin@opg.com</t>
+  </si>
+  <si>
+    <t>dale.berezan@applusrtd.com</t>
+  </si>
+  <si>
+    <t>jian-zhao@hotmail.com</t>
+  </si>
+  <si>
+    <t>calvinkboyle@gmail.com</t>
+  </si>
+  <si>
+    <t>Anand.Palani@cnrl.com</t>
+  </si>
+  <si>
+    <t>patrick.lannigan@brucepower.com</t>
+  </si>
+  <si>
+    <t>chabouni.djr@gmail.com</t>
+  </si>
+  <si>
+    <t>derrick.watson@brucepower.com</t>
+  </si>
+  <si>
+    <t>scott.bangs@brucepower.com</t>
+  </si>
+  <si>
+    <t>John.Adigun@cnrl.com</t>
+  </si>
+  <si>
+    <t>Perry.Lawless@cnrl.com</t>
+  </si>
+  <si>
+    <t>Zawar.Muhammad@cnrl.com</t>
+  </si>
+  <si>
+    <t>Ayo.Salaudeen@cnrl.com</t>
+  </si>
+  <si>
+    <t>jonathan.Uhlman@cnrl.com</t>
+  </si>
+  <si>
+    <t>Syed.Raza@cnrl.com</t>
+  </si>
+  <si>
+    <t>Waleed.Rafiq@cnrl.com</t>
+  </si>
+  <si>
+    <t>douglamarre@sympatico.ca</t>
+  </si>
+  <si>
+    <t>b_ilkuf@hotmail.com</t>
+  </si>
+  <si>
+    <t>tyler.rickard@enbridge.com</t>
+  </si>
+  <si>
+    <t>owen.nicol@enbridge.com</t>
+  </si>
+  <si>
+    <t>scott.robinson@enbridge.com</t>
+  </si>
+  <si>
+    <t>Stephen.Orser@cnrl.com</t>
+  </si>
+  <si>
+    <t>Qaiser.Butt@cnrl.com</t>
+  </si>
+  <si>
+    <t>r.hoffmann@rae.com</t>
+  </si>
+  <si>
+    <t>j.lawson@opg.com</t>
+  </si>
+  <si>
+    <t>darryl.czajkowski@opg.com</t>
+  </si>
+  <si>
+    <t>Hassan.Sattar@cnrl.com</t>
+  </si>
+  <si>
+    <t>eng.ndt@yahoo.com</t>
+  </si>
+  <si>
+    <t>Alexie.Broddy@cnrl.com</t>
+  </si>
+  <si>
+    <t>cchartier@ndtgroup.ca</t>
+  </si>
+  <si>
+    <t>h.herrera@rae.com</t>
+  </si>
+  <si>
+    <t>Marat.Kireev@cnrl.com</t>
+  </si>
+  <si>
+    <t>humbraganca@hotmail.com</t>
+  </si>
+  <si>
+    <t>ssusac@ndtgroup.ca</t>
+  </si>
+  <si>
+    <t>jmay@ndtgroup.ca</t>
+  </si>
+  <si>
+    <t>flokinn_coq@hotmail.com</t>
+  </si>
+  <si>
+    <t>anderson.ferraz@sbmoffshore.com</t>
+  </si>
+  <si>
+    <t>awallace441@gmail.com</t>
+  </si>
+  <si>
+    <t>matt.fritz@arcanite-ndt.com</t>
+  </si>
+  <si>
+    <t>joel.djordjevic@arcanite-ndt.com</t>
+  </si>
+  <si>
+    <t>nic.shoebridge@enbridge.com</t>
+  </si>
+  <si>
+    <t>hossein.taheri8067@gmail.com</t>
+  </si>
+  <si>
+    <t>jsaint@metalogicinspection.com</t>
+  </si>
+  <si>
+    <t>nrweston@anodendt.ca</t>
+  </si>
+  <si>
+    <t>shawn.hanrahan@opg.com</t>
+  </si>
+  <si>
+    <t>daniel.norman@opg.com</t>
+  </si>
+  <si>
+    <t>Dean.Ikert@enbridge.com</t>
+  </si>
+  <si>
+    <t>ryan.ziefflie@enbridge.com</t>
+  </si>
+  <si>
+    <t>jesse.rempel@enbridge.com</t>
+  </si>
+  <si>
+    <t>ewhite@ndtgroup.ca</t>
+  </si>
+  <si>
+    <t>nikhilsatheesan@outlook.com</t>
+  </si>
+  <si>
+    <t>karandeepgill760@gmail.com</t>
+  </si>
+  <si>
+    <t>andersonreisssilva@gmail.com</t>
+  </si>
+  <si>
+    <t>carl.gerbrandt@wav.ca</t>
+  </si>
+  <si>
+    <t>rackitndt@outlook.com</t>
+  </si>
+  <si>
+    <t>briancable40@gmail.com</t>
+  </si>
+  <si>
+    <t>collin.coffey@mantech.com</t>
+  </si>
+  <si>
+    <t>gabriell_008@hotmail.com</t>
+  </si>
+  <si>
+    <t>Curtis.behnke@enbridge.com</t>
+  </si>
+  <si>
+    <t>petronio@petrobras.com.br</t>
+  </si>
+  <si>
+    <t>vinicius.bogos@gmail.com</t>
+  </si>
+  <si>
+    <t>gabrielvfortes@gmail.com</t>
+  </si>
+  <si>
+    <t>jeehmorais89@gmail.com</t>
+  </si>
+  <si>
+    <t>colbyritzut@gmail.com</t>
+  </si>
+  <si>
+    <t>devon.algera@opg.com</t>
+  </si>
+  <si>
+    <t>michelle.fry@opg.com</t>
+  </si>
+  <si>
+    <t>sean.villeneuve@opg.com</t>
+  </si>
+  <si>
+    <t>barry.giasson@opg.com</t>
+  </si>
+  <si>
+    <t>Jarratt.Bilodeau@StuartOlson.com</t>
+  </si>
+  <si>
+    <t>julionunescosta@gmail.com</t>
+  </si>
+  <si>
+    <t>eng.douglaswilson@yahoo.com.br</t>
+  </si>
+  <si>
+    <t>fernando.grigolato@outlook.com</t>
+  </si>
+  <si>
+    <t>brendanmatthews@mail.com</t>
+  </si>
+  <si>
+    <t>a.beckman94@hotmail.com</t>
+  </si>
+  <si>
+    <t>limogesjon@gmail.com</t>
+  </si>
+  <si>
+    <t>marcel@strauhs.com.br</t>
+  </si>
+  <si>
+    <t>gina.mc@jgmservices.ca</t>
+  </si>
+  <si>
+    <t>taylor.gardiner@applusrtd.com</t>
+  </si>
+  <si>
+    <t>thiago_claro@hotmail.com</t>
+  </si>
+  <si>
+    <t>srsouzapinto@gmail.com</t>
+  </si>
+  <si>
+    <t>nickolas.lau@brucepower.com</t>
+  </si>
+  <si>
+    <t>qualidade.daniel@gmail.com</t>
+  </si>
+  <si>
+    <t>leonc_rj@yahoo.com.br</t>
+  </si>
+  <si>
+    <t>nathaliasg.fr@hotmail.com</t>
+  </si>
+  <si>
+    <t>ferrerinsp@gmail.com</t>
+  </si>
+  <si>
+    <t>pedro_augusto27@hotmail.com</t>
+  </si>
+  <si>
+    <t>lacianelli@hotmail.com</t>
+  </si>
+  <si>
+    <t>tom.kroeker@enbridge.com</t>
+  </si>
+  <si>
+    <t>chaboki.ali@gmail.com</t>
+  </si>
+  <si>
+    <t>paul.burton@opg.com</t>
+  </si>
+  <si>
+    <t>vanderlei_nogueira@hotmail.com</t>
+  </si>
+  <si>
+    <t>Vptamy@gmail.com</t>
+  </si>
+  <si>
+    <t>brunoinsp@hotmail.com</t>
+  </si>
+  <si>
+    <t>felipe@orionsic.com.br</t>
+  </si>
+  <si>
+    <t>diegom.silva@outlook.com</t>
+  </si>
+  <si>
+    <t>sa-jailson@hotmail.com</t>
+  </si>
+  <si>
+    <t>rodrigostohler@gmail.com</t>
+  </si>
+  <si>
+    <t>yingsong.wu@applusrtd.com</t>
+  </si>
+  <si>
+    <t>jrhilson16@gmail.com</t>
+  </si>
+  <si>
+    <t>jackbloy@gmail.com</t>
+  </si>
+  <si>
+    <t>fqlara@gmail.com</t>
+  </si>
+  <si>
+    <t>gmalmeida@isgbrasil.com.br</t>
+  </si>
+  <si>
+    <t>annyscordeiro@gmail.com</t>
+  </si>
+  <si>
+    <t>oko.oono@gmail.com</t>
+  </si>
+  <si>
+    <t>mendoncalon@gmail.com</t>
+  </si>
+  <si>
+    <t>felipecadiente@gmail.com</t>
+  </si>
+  <si>
+    <t>soheyltahan@gmail.com</t>
+  </si>
+  <si>
+    <t>eric.scott999@gmail.com</t>
+  </si>
+  <si>
+    <t>marcelo.dimensional@gmail.com</t>
+  </si>
+  <si>
+    <t>xrayedit23@hotmail.com</t>
+  </si>
+  <si>
+    <t>mark.wainman@opg.com</t>
+  </si>
+  <si>
+    <t>christopher.wood@opg.com</t>
+  </si>
+  <si>
+    <t>frank.santana@opg.com</t>
+  </si>
+  <si>
+    <t>kejqual@telusplanet.net</t>
+  </si>
+  <si>
+    <t>bzieger@metalogicinspection.com</t>
+  </si>
+  <si>
+    <t>alex.butcher@brucepower.com</t>
+  </si>
+  <si>
+    <t>carlb.soares@live.com</t>
+  </si>
+  <si>
+    <t>marcus.accon@gmail.com</t>
+  </si>
+  <si>
+    <t>brock.vangaver@enbridge.com</t>
+  </si>
+  <si>
+    <t>bhardwajmehta22@gmail.com</t>
+  </si>
+  <si>
+    <t>blake.macpherson@enbridge.com</t>
+  </si>
+  <si>
+    <t>Ben.Ren@cnrl.com</t>
+  </si>
+  <si>
     <t>lcsouza97@gmail.com</t>
-  </si>
-  <si>
-    <t>dreimer.cgy@gmail.com</t>
-  </si>
-  <si>
-    <t>elohorakiri@gmail.com</t>
-  </si>
-  <si>
-    <t>darryl.fenner@arcanite-ndt.com</t>
-  </si>
-  <si>
-    <t>adam.watkins@enbridge.com</t>
-  </si>
-  <si>
-    <t>logan.toth@enbridge.com</t>
-  </si>
-  <si>
-    <t>maurilio.filho@sbmoffshore.com</t>
-  </si>
-  <si>
-    <t>brunobandeiram@hotmail.com</t>
-  </si>
-  <si>
-    <t>henrique.psouza@hotmail.com</t>
-  </si>
-  <si>
-    <t>david199130@gmail.com</t>
-  </si>
-  <si>
-    <t>luay.ahmed89@yahoo.com</t>
-  </si>
-  <si>
-    <t>amin.maki@gmail.com</t>
-  </si>
-  <si>
-    <t>amirbehvandi01747@gmail.com</t>
-  </si>
-  <si>
-    <t>rickertjohn@icloud.com</t>
-  </si>
-  <si>
-    <t>ben.li@mistrasgroup.com</t>
-  </si>
-  <si>
-    <t>huibin.hu@brucepower.com</t>
-  </si>
-  <si>
-    <t>robert.hindle@brucepower.com</t>
-  </si>
-  <si>
-    <t>dale.chadney@enbridge.com</t>
-  </si>
-  <si>
-    <t>peter.flaman@enbridge.com</t>
-  </si>
-  <si>
-    <t>darrell.skinner5@gmail.com</t>
-  </si>
-  <si>
-    <t>jledden@metalogicinspection.com</t>
-  </si>
-  <si>
-    <t>gford@metalogicinspection.com</t>
-  </si>
-  <si>
-    <t>egbewand@ualberta.ca</t>
-  </si>
-  <si>
-    <t>derryckm@gmail.com</t>
-  </si>
-  <si>
-    <t>dheuston@ndtgroup.ca</t>
-  </si>
-  <si>
-    <t>jhetu@ndtgroup.ca</t>
-  </si>
-  <si>
-    <t>lebarrozo@gmail.com</t>
-  </si>
-  <si>
-    <t>hamed.faghihi@opg.com</t>
-  </si>
-  <si>
-    <t>twillier@metalogicinspection.com</t>
-  </si>
-  <si>
-    <t>roger.fourny@shaw.ca</t>
-  </si>
-  <si>
-    <t>josh_spencer@transcanada.com</t>
-  </si>
-  <si>
-    <t>dstrabel@telus.net</t>
-  </si>
-  <si>
-    <t>dalsaunders@gmail.com</t>
-  </si>
-  <si>
-    <t>justin.knutsen@metalogicinspection.com</t>
-  </si>
-  <si>
-    <t>brook.althouse@arcanite-ndt.com</t>
-  </si>
-  <si>
-    <t>maurolcardoso@gmail.com</t>
-  </si>
-  <si>
-    <t>k.ndt2008@gmail.com</t>
-  </si>
-  <si>
-    <t>joseph.konopka@mistrasgroup.com</t>
-  </si>
-  <si>
-    <t>mfc_98@hotmail.com</t>
-  </si>
-  <si>
-    <t>ivanelsonogueira36@gmail.com</t>
-  </si>
-  <si>
-    <t>Paulo.Gaviria@enbridge.com</t>
-  </si>
-  <si>
-    <t>Sohail.anwar@cnrl.com</t>
-  </si>
-  <si>
-    <t>Nathan.Schuler@cnrl.com</t>
-  </si>
-  <si>
-    <t>Gengsheng.Weng@cnrl.com</t>
-  </si>
-  <si>
-    <t>mwgumb@bwxt.com</t>
-  </si>
-  <si>
-    <t>janalizadeh@gmail.com</t>
-  </si>
-  <si>
-    <t>homayoun.javadi@tescan.ca</t>
-  </si>
-  <si>
-    <t>noelson.amaral@gmail.com</t>
-  </si>
-  <si>
-    <t>Alex.Arrau@cnrl.com</t>
-  </si>
-  <si>
-    <t>natanoel04@hotmail.com</t>
-  </si>
-  <si>
-    <t>elaflamme@nucleom.ca</t>
-  </si>
-  <si>
-    <t>lucioinspetordm2@gmail.com</t>
-  </si>
-  <si>
-    <t>ideraldo.tiburcio@sbmoffshore.com</t>
-  </si>
-  <si>
-    <t>fatihy100@gmail.com</t>
-  </si>
-  <si>
-    <t>alberto.oliveira@sbmoffshore.com</t>
-  </si>
-  <si>
-    <t>Mandy.Nelson@cnrl.com</t>
-  </si>
-  <si>
-    <t>marcelo.borchert@sbmoffshore.com</t>
-  </si>
-  <si>
-    <t>cesar.valero@repsol.com</t>
-  </si>
-  <si>
-    <t>Ryan.Faubert@enbridge.com</t>
-  </si>
-  <si>
-    <t>Mike.Cook@sbdinc.com</t>
-  </si>
-  <si>
-    <t>robertopintocq@gmail.com</t>
-  </si>
-  <si>
-    <t>marco.venne@gmail.com</t>
-  </si>
-  <si>
-    <t>Udaya.Sundar@cnrl.com</t>
-  </si>
-  <si>
-    <t>johnyboyaz@gmail.com</t>
-  </si>
-  <si>
-    <t>diego.gomes@me.com</t>
-  </si>
-  <si>
-    <t>Tylor.Arguin@wav.ca</t>
-  </si>
-  <si>
-    <t>naldenir.amaral@gmail.com</t>
-  </si>
-  <si>
-    <t>james.nimijohn@enbridge.com</t>
-  </si>
-  <si>
-    <t>Ybehnamian@gmail.com</t>
-  </si>
-  <si>
-    <t>chrisdleslie@outlook.com</t>
-  </si>
-  <si>
-    <t>Mojtaba.ghaderi60@gmail.com</t>
-  </si>
-  <si>
-    <t>Saeed.Farea@cnrl.com</t>
-  </si>
-  <si>
-    <t>tysonosmond@msn.com</t>
-  </si>
-  <si>
-    <t>Aaron.Ringer@tdwilliamson.com</t>
-  </si>
-  <si>
-    <t>alex.bp@oi.com.br</t>
-  </si>
-  <si>
-    <t>Michael.Brault@irisndt.com</t>
-  </si>
-  <si>
-    <t>timnelson155@msn.com</t>
-  </si>
-  <si>
-    <t>ebx.consultoria@gmail.com</t>
-  </si>
-  <si>
-    <t>marko.alekszity@gmail.com</t>
-  </si>
-  <si>
-    <t>rthomson@bwxt.com</t>
-  </si>
-  <si>
-    <t>jodland@tiltinspection.com</t>
-  </si>
-  <si>
-    <t>ssinger@acuren.com</t>
-  </si>
-  <si>
-    <t>renatokow@hotmail.com</t>
-  </si>
-  <si>
-    <t>noelfer@gmail.com</t>
-  </si>
-  <si>
-    <t>abkhan8998@gmail.com</t>
-  </si>
-  <si>
-    <t>Brian.Purves@wav.ca</t>
-  </si>
-  <si>
-    <t>kelly.norman@wav.ca</t>
-  </si>
-  <si>
-    <t>mohammad.koochak@gmail.com</t>
-  </si>
-  <si>
-    <t>doubrumm@gmail.com</t>
-  </si>
-  <si>
-    <t>rgarcia@ndtgroup.ca</t>
-  </si>
-  <si>
-    <t>cforero@ndtgroup.ca</t>
-  </si>
-  <si>
-    <t>paul.spencer@applusrtd.com</t>
-  </si>
-  <si>
-    <t>VPopov@nucleom.ca</t>
-  </si>
-  <si>
-    <t>robertgwif@yahoo.com.br</t>
-  </si>
-  <si>
-    <t>rajasengodan55@gmail.com</t>
-  </si>
-  <si>
-    <t>weston.ellis@opg.com</t>
-  </si>
-  <si>
-    <t>john.reardon@opg.com</t>
-  </si>
-  <si>
-    <t>insptonelli@hotmail.com</t>
-  </si>
-  <si>
-    <t>greg.braham@caveinspection.com</t>
-  </si>
-  <si>
-    <t>nunomcmarques@hotmail.com</t>
-  </si>
-  <si>
-    <t>levikitt@live.ca</t>
-  </si>
-  <si>
-    <t>garret.elkins@gmail.com</t>
-  </si>
-  <si>
-    <t>eng.aandrade@gmail.com</t>
-  </si>
-  <si>
-    <t>Jaeger.Lonsdale@sbdinc.com</t>
-  </si>
-  <si>
-    <t>logan.campbell@enbridge.com</t>
-  </si>
-  <si>
-    <t>Bradley.Kuntz@enbridge.com</t>
-  </si>
-  <si>
-    <t>Jay.Brooks@enbridge.com</t>
-  </si>
-  <si>
-    <t>amirghabraee@yahoo.com</t>
-  </si>
-  <si>
-    <t>Jnsmith@bwxt.com</t>
-  </si>
-  <si>
-    <t>wcpamer@bwxt.com</t>
-  </si>
-  <si>
-    <t>doug.desruisseaux@enbridge.com</t>
-  </si>
-  <si>
-    <t>alexandre_borchert@hotmail.com</t>
-  </si>
-  <si>
-    <t>Sheryl.vanderfluit@mistrasgroup.com</t>
-  </si>
-  <si>
-    <t>Essam.E.Elnahrawy@lngcanada.ca</t>
-  </si>
-  <si>
-    <t>Hisham.Madi@cnrl.com</t>
-  </si>
-  <si>
-    <t>Craig.McMeeken@wav.ca</t>
-  </si>
-  <si>
-    <t>dinghaifeng8888@hotmail.com</t>
-  </si>
-  <si>
-    <t>Muhammad.Akbar@cnrl.com</t>
-  </si>
-  <si>
-    <t>practitionerinspection@gmail.com</t>
-  </si>
-  <si>
-    <t>jtreacy@its-ndt.com</t>
-  </si>
-  <si>
-    <t>dana.martin@opg.com</t>
-  </si>
-  <si>
-    <t>dale.berezan@applusrtd.com</t>
-  </si>
-  <si>
-    <t>jian-zhao@hotmail.com</t>
-  </si>
-  <si>
-    <t>calvinkboyle@gmail.com</t>
-  </si>
-  <si>
-    <t>Anand.Palani@cnrl.com</t>
-  </si>
-  <si>
-    <t>patrick.lannigan@brucepower.com</t>
-  </si>
-  <si>
-    <t>chabouni.djr@gmail.com</t>
-  </si>
-  <si>
-    <t>derrick.watson@brucepower.com</t>
-  </si>
-  <si>
-    <t>scott.bangs@brucepower.com</t>
-  </si>
-  <si>
-    <t>John.Adigun@cnrl.com</t>
-  </si>
-  <si>
-    <t>Perry.Lawless@cnrl.com</t>
-  </si>
-  <si>
-    <t>Zawar.Muhammad@cnrl.com</t>
-  </si>
-  <si>
-    <t>Ayo.Salaudeen@cnrl.com</t>
-  </si>
-  <si>
-    <t>jonathan.Uhlman@cnrl.com</t>
-  </si>
-  <si>
-    <t>Syed.Raza@cnrl.com</t>
-  </si>
-  <si>
-    <t>Waleed.Rafiq@cnrl.com</t>
-  </si>
-  <si>
-    <t>douglamarre@sympatico.ca</t>
-  </si>
-  <si>
-    <t>b_ilkuf@hotmail.com</t>
-  </si>
-  <si>
-    <t>tyler.rickard@enbridge.com</t>
-  </si>
-  <si>
-    <t>owen.nicol@enbridge.com</t>
-  </si>
-  <si>
-    <t>scott.robinson@enbridge.com</t>
-  </si>
-  <si>
-    <t>Stephen.Orser@cnrl.com</t>
-  </si>
-  <si>
-    <t>Qaiser.Butt@cnrl.com</t>
-  </si>
-  <si>
-    <t>r.hoffmann@rae.com</t>
-  </si>
-  <si>
-    <t>j.lawson@opg.com</t>
-  </si>
-  <si>
-    <t>darryl.czajkowski@opg.com</t>
-  </si>
-  <si>
-    <t>Hassan.Sattar@cnrl.com</t>
-  </si>
-  <si>
-    <t>eng.ndt@yahoo.com</t>
-  </si>
-  <si>
-    <t>Alexie.Broddy@cnrl.com</t>
-  </si>
-  <si>
-    <t>cchartier@ndtgroup.ca</t>
-  </si>
-  <si>
-    <t>h.herrera@rae.com</t>
-  </si>
-  <si>
-    <t>Marat.Kireev@cnrl.com</t>
-  </si>
-  <si>
-    <t>humbraganca@hotmail.com</t>
-  </si>
-  <si>
-    <t>ssusac@ndtgroup.ca</t>
-  </si>
-  <si>
-    <t>jmay@ndtgroup.ca</t>
-  </si>
-  <si>
-    <t>flokinn_coq@hotmail.com</t>
-  </si>
-  <si>
-    <t>anderson.ferraz@sbmoffshore.com</t>
-  </si>
-  <si>
-    <t>awallace441@gmail.com</t>
-  </si>
-  <si>
-    <t>matt.fritz@arcanite-ndt.com</t>
-  </si>
-  <si>
-    <t>joel.djordjevic@arcanite-ndt.com</t>
-  </si>
-  <si>
-    <t>nic.shoebridge@enbridge.com</t>
-  </si>
-  <si>
-    <t>hossein.taheri8067@gmail.com</t>
-  </si>
-  <si>
-    <t>jsaint@metalogicinspection.com</t>
-  </si>
-  <si>
-    <t>nrweston@anodendt.ca</t>
-  </si>
-  <si>
-    <t>shawn.hanrahan@opg.com</t>
-  </si>
-  <si>
-    <t>daniel.norman@opg.com</t>
-  </si>
-  <si>
-    <t>Dean.Ikert@enbridge.com</t>
-  </si>
-  <si>
-    <t>ryan.ziefflie@enbridge.com</t>
-  </si>
-  <si>
-    <t>jesse.rempel@enbridge.com</t>
-  </si>
-  <si>
-    <t>ewhite@ndtgroup.ca</t>
-  </si>
-  <si>
-    <t>nikhilsatheesan@outlook.com</t>
-  </si>
-  <si>
-    <t>karandeepgill760@gmail.com</t>
-  </si>
-  <si>
-    <t>andersonreisssilva@gmail.com</t>
-  </si>
-  <si>
-    <t>carl.gerbrandt@wav.ca</t>
-  </si>
-  <si>
-    <t>rackitndt@outlook.com</t>
-  </si>
-  <si>
-    <t>briancable40@gmail.com</t>
-  </si>
-  <si>
-    <t>collin.coffey@mantech.com</t>
-  </si>
-  <si>
-    <t>gabriell_008@hotmail.com</t>
-  </si>
-  <si>
-    <t>Curtis.behnke@enbridge.com</t>
-  </si>
-  <si>
-    <t>petronio@petrobras.com.br</t>
-  </si>
-  <si>
-    <t>vinicius.bogos@gmail.com</t>
-  </si>
-  <si>
-    <t>gabrielvfortes@gmail.com</t>
-  </si>
-  <si>
-    <t>jeehmorais89@gmail.com</t>
-  </si>
-  <si>
-    <t>colbyritzut@gmail.com</t>
-  </si>
-  <si>
-    <t>devon.algera@opg.com</t>
-  </si>
-  <si>
-    <t>michelle.fry@opg.com</t>
-  </si>
-  <si>
-    <t>sean.villeneuve@opg.com</t>
-  </si>
-  <si>
-    <t>barry.giasson@opg.com</t>
-  </si>
-  <si>
-    <t>Jarratt.Bilodeau@StuartOlson.com</t>
-  </si>
-  <si>
-    <t>julionunescosta@gmail.com</t>
-  </si>
-  <si>
-    <t>eng.douglaswilson@yahoo.com.br</t>
-  </si>
-  <si>
-    <t>fernando.grigolato@outlook.com</t>
-  </si>
-  <si>
-    <t>brendanmatthews@mail.com</t>
-  </si>
-  <si>
-    <t>a.beckman94@hotmail.com</t>
-  </si>
-  <si>
-    <t>limogesjon@gmail.com</t>
-  </si>
-  <si>
-    <t>marcel@strauhs.com.br</t>
-  </si>
-  <si>
-    <t>gina.mc@jgmservices.ca</t>
-  </si>
-  <si>
-    <t>taylor.gardiner@applusrtd.com</t>
-  </si>
-  <si>
-    <t>thiago_claro@hotmail.com</t>
-  </si>
-  <si>
-    <t>srsouzapinto@gmail.com</t>
-  </si>
-  <si>
-    <t>nickolas.lau@brucepower.com</t>
-  </si>
-  <si>
-    <t>qualidade.daniel@gmail.com</t>
-  </si>
-  <si>
-    <t>leonc_rj@yahoo.com.br</t>
-  </si>
-  <si>
-    <t>nathaliasg.fr@hotmail.com</t>
-  </si>
-  <si>
-    <t>ferrerinsp@gmail.com</t>
-  </si>
-  <si>
-    <t>pedro_augusto27@hotmail.com</t>
-  </si>
-  <si>
-    <t>lacianelli@hotmail.com</t>
-  </si>
-  <si>
-    <t>tom.kroeker@enbridge.com</t>
-  </si>
-  <si>
-    <t>chaboki.ali@gmail.com</t>
-  </si>
-  <si>
-    <t>paul.burton@opg.com</t>
-  </si>
-  <si>
-    <t>vanderlei_nogueira@hotmail.com</t>
-  </si>
-  <si>
-    <t>Vptamy@gmail.com</t>
-  </si>
-  <si>
-    <t>brunoinsp@hotmail.com</t>
-  </si>
-  <si>
-    <t>felipe@orionsic.com.br</t>
-  </si>
-  <si>
-    <t>diegom.silva@outlook.com</t>
-  </si>
-  <si>
-    <t>sa-jailson@hotmail.com</t>
-  </si>
-  <si>
-    <t>rodrigostohler@gmail.com</t>
-  </si>
-  <si>
-    <t>yingsong.wu@applusrtd.com</t>
-  </si>
-  <si>
-    <t>jrhilson16@gmail.com</t>
-  </si>
-  <si>
-    <t>jackbloy@gmail.com</t>
-  </si>
-  <si>
-    <t>fqlara@gmail.com</t>
-  </si>
-  <si>
-    <t>gmalmeida@isgbrasil.com.br</t>
-  </si>
-  <si>
-    <t>annyscordeiro@gmail.com</t>
-  </si>
-  <si>
-    <t>oko.oono@gmail.com</t>
-  </si>
-  <si>
-    <t>mendoncalon@gmail.com</t>
-  </si>
-  <si>
-    <t>felipecadiente@gmail.com</t>
-  </si>
-  <si>
-    <t>soheyltahan@gmail.com</t>
-  </si>
-  <si>
-    <t>eric.scott999@gmail.com</t>
-  </si>
-  <si>
-    <t>marcelo.dimensional@gmail.com</t>
-  </si>
-  <si>
-    <t>xrayedit23@hotmail.com</t>
-  </si>
-  <si>
-    <t>mark.wainman@opg.com</t>
-  </si>
-  <si>
-    <t>christopher.wood@opg.com</t>
-  </si>
-  <si>
-    <t>frank.santana@opg.com</t>
-  </si>
-  <si>
-    <t>kejqual@telusplanet.net</t>
-  </si>
-  <si>
-    <t>bzieger@metalogicinspection.com</t>
-  </si>
-  <si>
-    <t>alex.butcher@brucepower.com</t>
-  </si>
-  <si>
-    <t>carlb.soares@live.com</t>
-  </si>
-  <si>
-    <t>marcus.accon@gmail.com</t>
-  </si>
-  <si>
-    <t>brock.vangaver@enbridge.com</t>
-  </si>
-  <si>
-    <t>bhardwajmehta22@gmail.com</t>
-  </si>
-  <si>
-    <t>blake.macpherson@enbridge.com</t>
-  </si>
-  <si>
-    <t>Ben.Ren@cnrl.com</t>
   </si>
   <si>
     <t>bernardes.inspecoes@gmail.com</t>

--- a/mysite/hello.xlsx
+++ b/mysite/hello.xlsx
@@ -14,738 +14,807 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
+  <si>
+    <t>darryl.fenner@arcanite-ndt.com</t>
+  </si>
   <si>
     <t>h_tazikeh@yahoo.com</t>
   </si>
   <si>
+    <t>ben.li@mistrasgroup.com</t>
+  </si>
+  <si>
+    <t>jledden@metalogicinspection.com</t>
+  </si>
+  <si>
+    <t>robert.hindle@brucepower.com</t>
+  </si>
+  <si>
+    <t>adam.watkins@enbridge.com</t>
+  </si>
+  <si>
+    <t>brunobandeiram@hotmail.com</t>
+  </si>
+  <si>
+    <t>peter.flaman@enbridge.com</t>
+  </si>
+  <si>
+    <t>huibin.hu@brucepower.com</t>
+  </si>
+  <si>
+    <t>helderassuncao@hotmail.com</t>
+  </si>
+  <si>
+    <t>darrell.skinner5@gmail.com</t>
+  </si>
+  <si>
+    <t>david199130@gmail.com</t>
+  </si>
+  <si>
+    <t>amin.maki@gmail.com</t>
+  </si>
+  <si>
     <t>dreimer.cgy@gmail.com</t>
   </si>
   <si>
+    <t>rickertjohn@icloud.com</t>
+  </si>
+  <si>
+    <t>dale.chadney@enbridge.com</t>
+  </si>
+  <si>
+    <t>Ybehnamian@gmail.com</t>
+  </si>
+  <si>
+    <t>amirbehvandi01747@gmail.com</t>
+  </si>
+  <si>
     <t>elohorakiri@gmail.com</t>
   </si>
   <si>
-    <t>darryl.fenner@arcanite-ndt.com</t>
-  </si>
-  <si>
-    <t>adam.watkins@enbridge.com</t>
+    <t>lcsouza97@gmail.com</t>
+  </si>
+  <si>
+    <t>mungdx66@gmail.com</t>
   </si>
   <si>
     <t>logan.toth@enbridge.com</t>
   </si>
   <si>
+    <t>brook.althouse@arcanite-ndt.com</t>
+  </si>
+  <si>
+    <t>luay.ahmed89@yahoo.com</t>
+  </si>
+  <si>
+    <t>josh_spencer@transcanada.com</t>
+  </si>
+  <si>
+    <t>dstrabel@telus.net</t>
+  </si>
+  <si>
+    <t>derryckm@gmail.com</t>
+  </si>
+  <si>
+    <t>carlb.soares@live.com</t>
+  </si>
+  <si>
+    <t>dheuston@ndtgroup.ca</t>
+  </si>
+  <si>
+    <t>jhetu@ndtgroup.ca</t>
+  </si>
+  <si>
+    <t>maurolcardoso@gmail.com</t>
+  </si>
+  <si>
+    <t>Sohail.anwar@cnrl.com</t>
+  </si>
+  <si>
+    <t>Gengsheng.Weng@cnrl.com</t>
+  </si>
+  <si>
+    <t>twillier@metalogicinspection.com</t>
+  </si>
+  <si>
+    <t>roger.fourny@shaw.ca</t>
+  </si>
+  <si>
+    <t>k.ndt2008@gmail.com</t>
+  </si>
+  <si>
+    <t>mfc_98@hotmail.com</t>
+  </si>
+  <si>
+    <t>hamed.faghihi@opg.com</t>
+  </si>
+  <si>
+    <t>mwgumb@bwxt.com</t>
+  </si>
+  <si>
+    <t>justin.knutsen@metalogicinspection.com</t>
+  </si>
+  <si>
+    <t>gford@metalogicinspection.com</t>
+  </si>
+  <si>
+    <t>lebarrozo@gmail.com</t>
+  </si>
+  <si>
+    <t>janalizadeh@gmail.com</t>
+  </si>
+  <si>
+    <t>Nathan.Schuler@cnrl.com</t>
+  </si>
+  <si>
+    <t>elaflamme@nucleom.ca</t>
+  </si>
+  <si>
+    <t>naldenir.amaral@gmail.com</t>
+  </si>
+  <si>
+    <t>dalsaunders@gmail.com</t>
+  </si>
+  <si>
+    <t>natanoel04@hotmail.com</t>
+  </si>
+  <si>
+    <t>marco.venne@gmail.com</t>
+  </si>
+  <si>
+    <t>marcelo.borchert@sbmoffshore.com</t>
+  </si>
+  <si>
+    <t>ideraldo.tiburcio@sbmoffshore.com</t>
+  </si>
+  <si>
+    <t>james.nimijohn@enbridge.com</t>
+  </si>
+  <si>
+    <t>Alex.Arrau@cnrl.com</t>
+  </si>
+  <si>
+    <t>Mandy.Nelson@cnrl.com</t>
+  </si>
+  <si>
+    <t>lucioinspetordm2@gmail.com</t>
+  </si>
+  <si>
+    <t>johnyboyaz@gmail.com</t>
+  </si>
+  <si>
+    <t>diego.gomes@me.com</t>
+  </si>
+  <si>
+    <t>robertopintocq@gmail.com</t>
+  </si>
+  <si>
+    <t>Tylor.Arguin@wav.ca</t>
+  </si>
+  <si>
+    <t>Mike.Cook@sbdinc.com</t>
+  </si>
+  <si>
+    <t>Ryan.Faubert@enbridge.com</t>
+  </si>
+  <si>
+    <t>Udaya.Sundar@cnrl.com</t>
+  </si>
+  <si>
+    <t>matthew.prowse@acuren.com</t>
+  </si>
+  <si>
+    <t>homayoun.javadi@tescan.ca</t>
+  </si>
+  <si>
+    <t>David-Tompkins@hotmail.com</t>
+  </si>
+  <si>
+    <t>Mojtaba.ghaderi60@gmail.com</t>
+  </si>
+  <si>
+    <t>noelson.amaral@gmail.com</t>
+  </si>
+  <si>
+    <t>timnelson155@msn.com</t>
+  </si>
+  <si>
+    <t>Michael.Brault@irisndt.com</t>
+  </si>
+  <si>
+    <t>VPopov@nucleom.ca</t>
+  </si>
+  <si>
+    <t>ssinger@acuren.com</t>
+  </si>
+  <si>
+    <t>belchiorvirgilio@gmail.com</t>
+  </si>
+  <si>
+    <t>jodland@tiltinspection.com</t>
+  </si>
+  <si>
+    <t>renatokow@hotmail.com</t>
+  </si>
+  <si>
+    <t>marko.alekszity@gmail.com</t>
+  </si>
+  <si>
+    <t>weston.ellis@opg.com</t>
+  </si>
+  <si>
+    <t>john.reardon@opg.com</t>
+  </si>
+  <si>
+    <t>Brian.Purves@wav.ca</t>
+  </si>
+  <si>
+    <t>kelly.norman@wav.ca</t>
+  </si>
+  <si>
+    <t>mohammad.koochak@gmail.com</t>
+  </si>
+  <si>
+    <t>doubrumm@gmail.com</t>
+  </si>
+  <si>
+    <t>rajasengodan55@gmail.com</t>
+  </si>
+  <si>
+    <t>rgarcia@ndtgroup.ca</t>
+  </si>
+  <si>
+    <t>saramella@gmail.com</t>
+  </si>
+  <si>
+    <t>paul.spencer@applusrtd.com</t>
+  </si>
+  <si>
+    <t>rsb407@gmail.com</t>
+  </si>
+  <si>
+    <t>Philippe.Cyr@acuren.com</t>
+  </si>
+  <si>
+    <t>dana.martin@opg.com</t>
+  </si>
+  <si>
+    <t>Sheryl.vanderfluit@mistrasgroup.com</t>
+  </si>
+  <si>
+    <t>amirghabraee@yahoo.com</t>
+  </si>
+  <si>
+    <t>Jnsmith@bwxt.com</t>
+  </si>
+  <si>
+    <t>wcpamer@bwxt.com</t>
+  </si>
+  <si>
+    <t>practitionerinspection@gmail.com</t>
+  </si>
+  <si>
+    <t>Craig.McMeeken@wav.ca</t>
+  </si>
+  <si>
+    <t>Ben.Ren@cnrl.com</t>
+  </si>
+  <si>
+    <t>Muhammad.Akbar@cnrl.com</t>
+  </si>
+  <si>
+    <t>Hisham.Madi@cnrl.com</t>
+  </si>
+  <si>
+    <t>jtreacy@its-ndt.com</t>
+  </si>
+  <si>
+    <t>dinghaifeng8888@hotmail.com</t>
+  </si>
+  <si>
+    <t>garret.elkins@gmail.com</t>
+  </si>
+  <si>
+    <t>insptonelli@hotmail.com</t>
+  </si>
+  <si>
+    <t>nunomcmarques@hotmail.com</t>
+  </si>
+  <si>
+    <t>Jaeger.Lonsdale@sbdinc.com</t>
+  </si>
+  <si>
+    <t>levikitt@live.ca</t>
+  </si>
+  <si>
+    <t>Bradley.Kuntz@enbridge.com</t>
+  </si>
+  <si>
+    <t>Jay.Brooks@enbridge.com</t>
+  </si>
+  <si>
+    <t>doug.desruisseaux@enbridge.com</t>
+  </si>
+  <si>
+    <t>logan.campbell@enbridge.com</t>
+  </si>
+  <si>
+    <t>darryl.czajkowski@opg.com</t>
+  </si>
+  <si>
+    <t>j.lawson@opg.com</t>
+  </si>
+  <si>
+    <t>derrick.watson@brucepower.com</t>
+  </si>
+  <si>
+    <t>chabouni.djr@gmail.com</t>
+  </si>
+  <si>
+    <t>owen.nicol@enbridge.com</t>
+  </si>
+  <si>
+    <t>dale.berezan@applusrtd.com</t>
+  </si>
+  <si>
+    <t>jian-zhao@hotmail.com</t>
+  </si>
+  <si>
+    <t>scott.robinson@enbridge.com</t>
+  </si>
+  <si>
+    <t>b_ilkuf@hotmail.com</t>
+  </si>
+  <si>
+    <t>douglamarre@sympatico.ca</t>
+  </si>
+  <si>
+    <t>r.hoffmann@rae.com</t>
+  </si>
+  <si>
+    <t>Waleed.Rafiq@cnrl.com</t>
+  </si>
+  <si>
+    <t>Perry.Lawless@cnrl.com</t>
+  </si>
+  <si>
+    <t>Stephen.Orser@cnrl.com</t>
+  </si>
+  <si>
+    <t>Qaiser.Butt@cnrl.com</t>
+  </si>
+  <si>
+    <t>Zawar.Muhammad@cnrl.com</t>
+  </si>
+  <si>
+    <t>Ayo.Salaudeen@cnrl.com</t>
+  </si>
+  <si>
+    <t>jonathan.Uhlman@cnrl.com</t>
+  </si>
+  <si>
+    <t>Anand.Palani@cnrl.com</t>
+  </si>
+  <si>
+    <t>scott.bangs@brucepower.com</t>
+  </si>
+  <si>
+    <t>tyler.rickard@enbridge.com</t>
+  </si>
+  <si>
+    <t>omerzamir3@gmail.com</t>
+  </si>
+  <si>
+    <t>daniel.norman@opg.com</t>
+  </si>
+  <si>
+    <t>shawn.hanrahan@opg.com</t>
+  </si>
+  <si>
+    <t>hossein.taheri8067@gmail.com</t>
+  </si>
+  <si>
+    <t>matt.fritz@arcanite-ndt.com</t>
+  </si>
+  <si>
+    <t>awallace441@gmail.com</t>
+  </si>
+  <si>
+    <t>joel.djordjevic@arcanite-ndt.com</t>
+  </si>
+  <si>
+    <t>cchartier@ndtgroup.ca</t>
+  </si>
+  <si>
+    <t>humbraganca@hotmail.com</t>
+  </si>
+  <si>
+    <t>flokinn_coq@hotmail.com</t>
+  </si>
+  <si>
+    <t>jmay@ndtgroup.ca</t>
+  </si>
+  <si>
+    <t>marcus.accon@gmail.com</t>
+  </si>
+  <si>
+    <t>ssusac@ndtgroup.ca</t>
+  </si>
+  <si>
+    <t>rackitndt@outlook.com</t>
+  </si>
+  <si>
+    <t>nic.shoebridge@enbridge.com</t>
+  </si>
+  <si>
+    <t>jsaint@metalogicinspection.com</t>
+  </si>
+  <si>
+    <t>blake.macpherson@enbridge.com</t>
+  </si>
+  <si>
+    <t>eng.ndt@yahoo.com</t>
+  </si>
+  <si>
+    <t>h.herrera@rae.com</t>
+  </si>
+  <si>
+    <t>Hassan.Sattar@cnrl.com</t>
+  </si>
+  <si>
+    <t>Marat.Kireev@cnrl.com</t>
+  </si>
+  <si>
+    <t>Alexie.Broddy@cnrl.com</t>
+  </si>
+  <si>
+    <t>nima_vakil@yahoo.com</t>
+  </si>
+  <si>
+    <t>nrweston@anodendt.ca</t>
+  </si>
+  <si>
+    <t>barry.giasson@opg.com</t>
+  </si>
+  <si>
+    <t>michelle.fry@opg.com</t>
+  </si>
+  <si>
+    <t>devon.algera@opg.com</t>
+  </si>
+  <si>
+    <t>briancable40@gmail.com</t>
+  </si>
+  <si>
+    <t>jeehmorais89@gmail.com</t>
+  </si>
+  <si>
+    <t>colbyritzut@gmail.com</t>
+  </si>
+  <si>
+    <t>Dean.Ikert@enbridge.com</t>
+  </si>
+  <si>
+    <t>gabrielvfortes@gmail.com</t>
+  </si>
+  <si>
+    <t>nikhilsatheesan@outlook.com</t>
+  </si>
+  <si>
+    <t>jesse.rempel@enbridge.com</t>
+  </si>
+  <si>
+    <t>karandeepgill760@gmail.com</t>
+  </si>
+  <si>
+    <t>ewhite@ndtgroup.ca</t>
+  </si>
+  <si>
+    <t>collin.coffey@mantech.com</t>
+  </si>
+  <si>
+    <t>Curtis.behnke@enbridge.com</t>
+  </si>
+  <si>
+    <t>marcel@strauhs.com.br</t>
+  </si>
+  <si>
+    <t>ryan.ziefflie@enbridge.com</t>
+  </si>
+  <si>
+    <t>carl.gerbrandt@wav.ca</t>
+  </si>
+  <si>
+    <t>andersonreisssilva@gmail.com</t>
+  </si>
+  <si>
+    <t>gabriell_008@hotmail.com</t>
+  </si>
+  <si>
+    <t>nima.vakilotojjar@gmail.com</t>
+  </si>
+  <si>
+    <t>vinicius.bogos@gmail.com</t>
+  </si>
+  <si>
+    <t>paul.burton@opg.com</t>
+  </si>
+  <si>
+    <t>limogesjon@gmail.com</t>
+  </si>
+  <si>
+    <t>fernando.grigolato@outlook.com</t>
+  </si>
+  <si>
+    <t>nickolas.lau@brucepower.com</t>
+  </si>
+  <si>
+    <t>taylor.gardiner@applusrtd.com</t>
+  </si>
+  <si>
+    <t>srsouzapinto@gmail.com</t>
+  </si>
+  <si>
+    <t>qualidade.daniel@gmail.com</t>
+  </si>
+  <si>
+    <t>ferrerinsp@gmail.com</t>
+  </si>
+  <si>
+    <t>pedro_augusto27@hotmail.com</t>
+  </si>
+  <si>
+    <t>nathaliasg.fr@hotmail.com</t>
+  </si>
+  <si>
+    <t>Jarratt.Bilodeau@StuartOlson.com</t>
+  </si>
+  <si>
+    <t>thiago_claro@hotmail.com</t>
+  </si>
+  <si>
+    <t>julionunescosta@gmail.com</t>
+  </si>
+  <si>
+    <t>chaboki.ali@gmail.com</t>
+  </si>
+  <si>
+    <t>a.beckman94@hotmail.com</t>
+  </si>
+  <si>
+    <t>lacianelli@hotmail.com</t>
+  </si>
+  <si>
+    <t>wesleyhweber@gmail.com</t>
+  </si>
+  <si>
+    <t>eng.douglaswilson@yahoo.com.br</t>
+  </si>
+  <si>
+    <t>sa-jailson@hotmail.com</t>
+  </si>
+  <si>
+    <t>diegom.silva@outlook.com</t>
+  </si>
+  <si>
+    <t>jrhilson16@gmail.com</t>
+  </si>
+  <si>
+    <t>fqlara@gmail.com</t>
+  </si>
+  <si>
+    <t>mendoncalon@gmail.com</t>
+  </si>
+  <si>
+    <t>oko.oono@gmail.com</t>
+  </si>
+  <si>
+    <t>soheyltahan@gmail.com</t>
+  </si>
+  <si>
+    <t>gmalmeida@isgbrasil.com.br</t>
+  </si>
+  <si>
+    <t>yingsong.wu@applusrtd.com</t>
+  </si>
+  <si>
+    <t>vanderlei_nogueira@hotmail.com</t>
+  </si>
+  <si>
+    <t>felipe@orionsic.com.br</t>
+  </si>
+  <si>
+    <t>eric.scott999@gmail.com</t>
+  </si>
+  <si>
+    <t>brunoinsp@hotmail.com</t>
+  </si>
+  <si>
+    <t>jackbloy@gmail.com</t>
+  </si>
+  <si>
+    <t>rodrigostohler@gmail.com</t>
+  </si>
+  <si>
+    <t>Vptamy@gmail.com</t>
+  </si>
+  <si>
+    <t>blessed.agunu@totalenergies.com</t>
+  </si>
+  <si>
+    <t>felipecadiente@gmail.com</t>
+  </si>
+  <si>
+    <t>marcelo.dimensional@gmail.com</t>
+  </si>
+  <si>
+    <t>kejqual@telusplanet.net</t>
+  </si>
+  <si>
+    <t>xrayedit23@hotmail.com</t>
+  </si>
+  <si>
+    <t>frank.santana@opg.com</t>
+  </si>
+  <si>
+    <t>christopher.wood@opg.com</t>
+  </si>
+  <si>
+    <t>mark.wainman@opg.com</t>
+  </si>
+  <si>
+    <t>brock.vangaver@enbridge.com</t>
+  </si>
+  <si>
+    <t>anderson.ferraz@sbmoffshore.com</t>
+  </si>
+  <si>
+    <t>robertgwif@yahoo.com.br</t>
+  </si>
+  <si>
+    <t>alexandre_borchert@hotmail.com</t>
+  </si>
+  <si>
+    <t>sean.villeneuve@opg.com</t>
+  </si>
+  <si>
+    <t>Paulo.Gaviria@enbridge.com</t>
+  </si>
+  <si>
+    <t>mattklassen@telus.net</t>
+  </si>
+  <si>
+    <t>tom.kroeker@enbridge.com</t>
+  </si>
+  <si>
+    <t>alberto.oliveira@sbmoffshore.com</t>
+  </si>
+  <si>
+    <t>cforero@ndtgroup.ca</t>
+  </si>
+  <si>
+    <t>bzieger@metalogicinspection.com</t>
+  </si>
+  <si>
     <t>maurilio.filho@sbmoffshore.com</t>
   </si>
   <si>
-    <t>brunobandeiram@hotmail.com</t>
+    <t>chrisdleslie@outlook.com</t>
+  </si>
+  <si>
+    <t>John.Adigun@cnrl.com</t>
+  </si>
+  <si>
+    <t>Syed.Raza@cnrl.com</t>
+  </si>
+  <si>
+    <t>luis.marka@inphaseintegrity.com</t>
+  </si>
+  <si>
+    <t>marco.proenca@yahoo.com.br</t>
+  </si>
+  <si>
+    <t>motasilvab@yahoo.com.br</t>
+  </si>
+  <si>
+    <t>darcio.angelo@petromar.co.ao</t>
+  </si>
+  <si>
+    <t>claudio.quiala@vipaqui-angola.com</t>
+  </si>
+  <si>
+    <t>sergio.targino@hotmail.com</t>
+  </si>
+  <si>
+    <t>srquality.inspecao@hotmail.com</t>
+  </si>
+  <si>
+    <t>gabrielsalesmaia@hotmail.com</t>
+  </si>
+  <si>
+    <t>rthomson@bwxt.com</t>
+  </si>
+  <si>
+    <t>joseph.konopka@mistrasgroup.com</t>
+  </si>
+  <si>
+    <t>alex.butcher@brucepower.com</t>
+  </si>
+  <si>
+    <t>Essam.E.Elnahrawy@lngcanada.ca</t>
+  </si>
+  <si>
+    <t>calvinkboyle@gmail.com</t>
+  </si>
+  <si>
+    <t>leonc_rj@yahoo.com.br</t>
+  </si>
+  <si>
+    <t>cesar.valero@repsol.com</t>
+  </si>
+  <si>
+    <t>noelfer@gmail.com</t>
+  </si>
+  <si>
+    <t>greg.braham@caveinspection.com</t>
+  </si>
+  <si>
+    <t>elia@leveliiindt.com</t>
+  </si>
+  <si>
+    <t>FBLeclerc@nucleom.ca</t>
+  </si>
+  <si>
+    <t>psinats@elanderinspection.ca</t>
+  </si>
+  <si>
+    <t>sardinhagustavo@hotmail.com</t>
+  </si>
+  <si>
+    <t>annyscordeiro@gmail.com</t>
+  </si>
+  <si>
+    <t>ivanelsonogueira36@gmail.com</t>
+  </si>
+  <si>
+    <t>Saeed.Farea@cnrl.com</t>
+  </si>
+  <si>
+    <t>petronio@petrobras.com.br</t>
+  </si>
+  <si>
+    <t>fatihy100@gmail.com</t>
   </si>
   <si>
     <t>henrique.psouza@hotmail.com</t>
   </si>
   <si>
-    <t>david199130@gmail.com</t>
-  </si>
-  <si>
-    <t>luay.ahmed89@yahoo.com</t>
-  </si>
-  <si>
-    <t>amin.maki@gmail.com</t>
-  </si>
-  <si>
-    <t>amirbehvandi01747@gmail.com</t>
-  </si>
-  <si>
-    <t>rickertjohn@icloud.com</t>
-  </si>
-  <si>
-    <t>ben.li@mistrasgroup.com</t>
-  </si>
-  <si>
-    <t>huibin.hu@brucepower.com</t>
-  </si>
-  <si>
-    <t>robert.hindle@brucepower.com</t>
-  </si>
-  <si>
-    <t>dale.chadney@enbridge.com</t>
-  </si>
-  <si>
-    <t>peter.flaman@enbridge.com</t>
-  </si>
-  <si>
-    <t>darrell.skinner5@gmail.com</t>
-  </si>
-  <si>
-    <t>jledden@metalogicinspection.com</t>
-  </si>
-  <si>
-    <t>gford@metalogicinspection.com</t>
-  </si>
-  <si>
-    <t>egbewand@ualberta.ca</t>
-  </si>
-  <si>
-    <t>derryckm@gmail.com</t>
-  </si>
-  <si>
-    <t>dheuston@ndtgroup.ca</t>
-  </si>
-  <si>
-    <t>jhetu@ndtgroup.ca</t>
-  </si>
-  <si>
-    <t>lebarrozo@gmail.com</t>
-  </si>
-  <si>
-    <t>hamed.faghihi@opg.com</t>
-  </si>
-  <si>
-    <t>twillier@metalogicinspection.com</t>
-  </si>
-  <si>
-    <t>roger.fourny@shaw.ca</t>
-  </si>
-  <si>
-    <t>josh_spencer@transcanada.com</t>
-  </si>
-  <si>
-    <t>dstrabel@telus.net</t>
-  </si>
-  <si>
-    <t>dalsaunders@gmail.com</t>
-  </si>
-  <si>
-    <t>justin.knutsen@metalogicinspection.com</t>
-  </si>
-  <si>
-    <t>brook.althouse@arcanite-ndt.com</t>
-  </si>
-  <si>
-    <t>maurolcardoso@gmail.com</t>
-  </si>
-  <si>
-    <t>k.ndt2008@gmail.com</t>
-  </si>
-  <si>
-    <t>joseph.konopka@mistrasgroup.com</t>
-  </si>
-  <si>
-    <t>mfc_98@hotmail.com</t>
-  </si>
-  <si>
-    <t>ivanelsonogueira36@gmail.com</t>
-  </si>
-  <si>
-    <t>Paulo.Gaviria@enbridge.com</t>
-  </si>
-  <si>
-    <t>Sohail.anwar@cnrl.com</t>
-  </si>
-  <si>
-    <t>Nathan.Schuler@cnrl.com</t>
-  </si>
-  <si>
-    <t>Gengsheng.Weng@cnrl.com</t>
-  </si>
-  <si>
-    <t>mwgumb@bwxt.com</t>
-  </si>
-  <si>
-    <t>janalizadeh@gmail.com</t>
-  </si>
-  <si>
-    <t>homayoun.javadi@tescan.ca</t>
-  </si>
-  <si>
-    <t>noelson.amaral@gmail.com</t>
-  </si>
-  <si>
-    <t>Alex.Arrau@cnrl.com</t>
-  </si>
-  <si>
-    <t>natanoel04@hotmail.com</t>
-  </si>
-  <si>
-    <t>elaflamme@nucleom.ca</t>
-  </si>
-  <si>
-    <t>lucioinspetordm2@gmail.com</t>
-  </si>
-  <si>
-    <t>ideraldo.tiburcio@sbmoffshore.com</t>
-  </si>
-  <si>
-    <t>fatihy100@gmail.com</t>
-  </si>
-  <si>
-    <t>alberto.oliveira@sbmoffshore.com</t>
-  </si>
-  <si>
-    <t>Mandy.Nelson@cnrl.com</t>
-  </si>
-  <si>
-    <t>marcelo.borchert@sbmoffshore.com</t>
-  </si>
-  <si>
-    <t>cesar.valero@repsol.com</t>
-  </si>
-  <si>
-    <t>Ryan.Faubert@enbridge.com</t>
-  </si>
-  <si>
-    <t>Mike.Cook@sbdinc.com</t>
-  </si>
-  <si>
-    <t>robertopintocq@gmail.com</t>
-  </si>
-  <si>
-    <t>marco.venne@gmail.com</t>
-  </si>
-  <si>
-    <t>Udaya.Sundar@cnrl.com</t>
-  </si>
-  <si>
-    <t>johnyboyaz@gmail.com</t>
-  </si>
-  <si>
-    <t>diego.gomes@me.com</t>
-  </si>
-  <si>
-    <t>Tylor.Arguin@wav.ca</t>
-  </si>
-  <si>
-    <t>naldenir.amaral@gmail.com</t>
-  </si>
-  <si>
-    <t>james.nimijohn@enbridge.com</t>
-  </si>
-  <si>
-    <t>Ybehnamian@gmail.com</t>
-  </si>
-  <si>
-    <t>chrisdleslie@outlook.com</t>
-  </si>
-  <si>
-    <t>Mojtaba.ghaderi60@gmail.com</t>
-  </si>
-  <si>
-    <t>Saeed.Farea@cnrl.com</t>
+    <t>jardelmont@gmail.com</t>
+  </si>
+  <si>
+    <t>bhardwajmehta22@gmail.com</t>
+  </si>
+  <si>
+    <t>weiming342@gmail.com</t>
+  </si>
+  <si>
+    <t>brendanmatthews@mail.com</t>
+  </si>
+  <si>
+    <t>luisfelipesel@gmail.com</t>
+  </si>
+  <si>
+    <t>ebx.consultoria@gmail.com</t>
   </si>
   <si>
     <t>tysonosmond@msn.com</t>
   </si>
   <si>
-    <t>Aaron.Ringer@tdwilliamson.com</t>
-  </si>
-  <si>
-    <t>alex.bp@oi.com.br</t>
-  </si>
-  <si>
-    <t>Michael.Brault@irisndt.com</t>
-  </si>
-  <si>
-    <t>timnelson155@msn.com</t>
-  </si>
-  <si>
-    <t>ebx.consultoria@gmail.com</t>
-  </si>
-  <si>
-    <t>marko.alekszity@gmail.com</t>
-  </si>
-  <si>
-    <t>rthomson@bwxt.com</t>
-  </si>
-  <si>
-    <t>jodland@tiltinspection.com</t>
-  </si>
-  <si>
-    <t>ssinger@acuren.com</t>
-  </si>
-  <si>
-    <t>renatokow@hotmail.com</t>
-  </si>
-  <si>
-    <t>noelfer@gmail.com</t>
-  </si>
-  <si>
-    <t>abkhan8998@gmail.com</t>
-  </si>
-  <si>
-    <t>Brian.Purves@wav.ca</t>
-  </si>
-  <si>
-    <t>kelly.norman@wav.ca</t>
-  </si>
-  <si>
-    <t>mohammad.koochak@gmail.com</t>
-  </si>
-  <si>
-    <t>doubrumm@gmail.com</t>
-  </si>
-  <si>
-    <t>rgarcia@ndtgroup.ca</t>
-  </si>
-  <si>
-    <t>cforero@ndtgroup.ca</t>
-  </si>
-  <si>
-    <t>paul.spencer@applusrtd.com</t>
-  </si>
-  <si>
-    <t>VPopov@nucleom.ca</t>
-  </si>
-  <si>
-    <t>robertgwif@yahoo.com.br</t>
-  </si>
-  <si>
-    <t>rajasengodan55@gmail.com</t>
-  </si>
-  <si>
-    <t>weston.ellis@opg.com</t>
-  </si>
-  <si>
-    <t>john.reardon@opg.com</t>
-  </si>
-  <si>
-    <t>insptonelli@hotmail.com</t>
-  </si>
-  <si>
-    <t>greg.braham@caveinspection.com</t>
-  </si>
-  <si>
-    <t>nunomcmarques@hotmail.com</t>
-  </si>
-  <si>
-    <t>levikitt@live.ca</t>
-  </si>
-  <si>
-    <t>garret.elkins@gmail.com</t>
-  </si>
-  <si>
-    <t>eng.aandrade@gmail.com</t>
-  </si>
-  <si>
-    <t>Jaeger.Lonsdale@sbdinc.com</t>
-  </si>
-  <si>
-    <t>logan.campbell@enbridge.com</t>
-  </si>
-  <si>
-    <t>Bradley.Kuntz@enbridge.com</t>
-  </si>
-  <si>
-    <t>Jay.Brooks@enbridge.com</t>
-  </si>
-  <si>
-    <t>amirghabraee@yahoo.com</t>
-  </si>
-  <si>
-    <t>Jnsmith@bwxt.com</t>
-  </si>
-  <si>
-    <t>wcpamer@bwxt.com</t>
-  </si>
-  <si>
-    <t>doug.desruisseaux@enbridge.com</t>
-  </si>
-  <si>
-    <t>alexandre_borchert@hotmail.com</t>
-  </si>
-  <si>
-    <t>Sheryl.vanderfluit@mistrasgroup.com</t>
-  </si>
-  <si>
-    <t>Essam.E.Elnahrawy@lngcanada.ca</t>
-  </si>
-  <si>
-    <t>Hisham.Madi@cnrl.com</t>
-  </si>
-  <si>
-    <t>Craig.McMeeken@wav.ca</t>
-  </si>
-  <si>
-    <t>dinghaifeng8888@hotmail.com</t>
-  </si>
-  <si>
-    <t>Muhammad.Akbar@cnrl.com</t>
-  </si>
-  <si>
-    <t>practitionerinspection@gmail.com</t>
-  </si>
-  <si>
-    <t>jtreacy@its-ndt.com</t>
-  </si>
-  <si>
-    <t>dana.martin@opg.com</t>
-  </si>
-  <si>
-    <t>dale.berezan@applusrtd.com</t>
-  </si>
-  <si>
-    <t>jian-zhao@hotmail.com</t>
-  </si>
-  <si>
-    <t>calvinkboyle@gmail.com</t>
-  </si>
-  <si>
-    <t>Anand.Palani@cnrl.com</t>
-  </si>
-  <si>
     <t>patrick.lannigan@brucepower.com</t>
   </si>
   <si>
-    <t>chabouni.djr@gmail.com</t>
-  </si>
-  <si>
-    <t>derrick.watson@brucepower.com</t>
-  </si>
-  <si>
-    <t>scott.bangs@brucepower.com</t>
-  </si>
-  <si>
-    <t>John.Adigun@cnrl.com</t>
-  </si>
-  <si>
-    <t>Perry.Lawless@cnrl.com</t>
-  </si>
-  <si>
-    <t>Zawar.Muhammad@cnrl.com</t>
-  </si>
-  <si>
-    <t>Ayo.Salaudeen@cnrl.com</t>
-  </si>
-  <si>
-    <t>jonathan.Uhlman@cnrl.com</t>
-  </si>
-  <si>
-    <t>Syed.Raza@cnrl.com</t>
-  </si>
-  <si>
-    <t>Waleed.Rafiq@cnrl.com</t>
-  </si>
-  <si>
-    <t>douglamarre@sympatico.ca</t>
-  </si>
-  <si>
-    <t>b_ilkuf@hotmail.com</t>
-  </si>
-  <si>
-    <t>tyler.rickard@enbridge.com</t>
-  </si>
-  <si>
-    <t>owen.nicol@enbridge.com</t>
-  </si>
-  <si>
-    <t>scott.robinson@enbridge.com</t>
-  </si>
-  <si>
-    <t>Stephen.Orser@cnrl.com</t>
-  </si>
-  <si>
-    <t>Qaiser.Butt@cnrl.com</t>
-  </si>
-  <si>
-    <t>r.hoffmann@rae.com</t>
-  </si>
-  <si>
-    <t>j.lawson@opg.com</t>
-  </si>
-  <si>
-    <t>darryl.czajkowski@opg.com</t>
-  </si>
-  <si>
-    <t>Hassan.Sattar@cnrl.com</t>
-  </si>
-  <si>
-    <t>eng.ndt@yahoo.com</t>
-  </si>
-  <si>
-    <t>Alexie.Broddy@cnrl.com</t>
-  </si>
-  <si>
-    <t>cchartier@ndtgroup.ca</t>
-  </si>
-  <si>
-    <t>h.herrera@rae.com</t>
-  </si>
-  <si>
-    <t>Marat.Kireev@cnrl.com</t>
-  </si>
-  <si>
-    <t>humbraganca@hotmail.com</t>
-  </si>
-  <si>
-    <t>ssusac@ndtgroup.ca</t>
-  </si>
-  <si>
-    <t>jmay@ndtgroup.ca</t>
-  </si>
-  <si>
-    <t>flokinn_coq@hotmail.com</t>
-  </si>
-  <si>
-    <t>anderson.ferraz@sbmoffshore.com</t>
-  </si>
-  <si>
-    <t>awallace441@gmail.com</t>
-  </si>
-  <si>
-    <t>matt.fritz@arcanite-ndt.com</t>
-  </si>
-  <si>
-    <t>joel.djordjevic@arcanite-ndt.com</t>
-  </si>
-  <si>
-    <t>nic.shoebridge@enbridge.com</t>
-  </si>
-  <si>
-    <t>hossein.taheri8067@gmail.com</t>
-  </si>
-  <si>
-    <t>jsaint@metalogicinspection.com</t>
-  </si>
-  <si>
-    <t>nrweston@anodendt.ca</t>
-  </si>
-  <si>
-    <t>shawn.hanrahan@opg.com</t>
-  </si>
-  <si>
-    <t>daniel.norman@opg.com</t>
-  </si>
-  <si>
-    <t>Dean.Ikert@enbridge.com</t>
-  </si>
-  <si>
-    <t>ryan.ziefflie@enbridge.com</t>
-  </si>
-  <si>
-    <t>jesse.rempel@enbridge.com</t>
-  </si>
-  <si>
-    <t>ewhite@ndtgroup.ca</t>
-  </si>
-  <si>
-    <t>nikhilsatheesan@outlook.com</t>
-  </si>
-  <si>
-    <t>karandeepgill760@gmail.com</t>
-  </si>
-  <si>
-    <t>andersonreisssilva@gmail.com</t>
-  </si>
-  <si>
-    <t>carl.gerbrandt@wav.ca</t>
-  </si>
-  <si>
-    <t>rackitndt@outlook.com</t>
-  </si>
-  <si>
-    <t>briancable40@gmail.com</t>
-  </si>
-  <si>
-    <t>collin.coffey@mantech.com</t>
-  </si>
-  <si>
-    <t>gabriell_008@hotmail.com</t>
-  </si>
-  <si>
-    <t>Curtis.behnke@enbridge.com</t>
-  </si>
-  <si>
-    <t>petronio@petrobras.com.br</t>
-  </si>
-  <si>
-    <t>vinicius.bogos@gmail.com</t>
-  </si>
-  <si>
-    <t>gabrielvfortes@gmail.com</t>
-  </si>
-  <si>
-    <t>jeehmorais89@gmail.com</t>
-  </si>
-  <si>
-    <t>colbyritzut@gmail.com</t>
-  </si>
-  <si>
-    <t>devon.algera@opg.com</t>
-  </si>
-  <si>
-    <t>michelle.fry@opg.com</t>
-  </si>
-  <si>
-    <t>sean.villeneuve@opg.com</t>
-  </si>
-  <si>
-    <t>barry.giasson@opg.com</t>
-  </si>
-  <si>
-    <t>Jarratt.Bilodeau@StuartOlson.com</t>
-  </si>
-  <si>
-    <t>julionunescosta@gmail.com</t>
-  </si>
-  <si>
-    <t>eng.douglaswilson@yahoo.com.br</t>
-  </si>
-  <si>
-    <t>fernando.grigolato@outlook.com</t>
-  </si>
-  <si>
-    <t>brendanmatthews@mail.com</t>
-  </si>
-  <si>
-    <t>a.beckman94@hotmail.com</t>
-  </si>
-  <si>
-    <t>limogesjon@gmail.com</t>
-  </si>
-  <si>
-    <t>marcel@strauhs.com.br</t>
-  </si>
-  <si>
     <t>gina.mc@jgmservices.ca</t>
-  </si>
-  <si>
-    <t>taylor.gardiner@applusrtd.com</t>
-  </si>
-  <si>
-    <t>thiago_claro@hotmail.com</t>
-  </si>
-  <si>
-    <t>srsouzapinto@gmail.com</t>
-  </si>
-  <si>
-    <t>nickolas.lau@brucepower.com</t>
-  </si>
-  <si>
-    <t>qualidade.daniel@gmail.com</t>
-  </si>
-  <si>
-    <t>leonc_rj@yahoo.com.br</t>
-  </si>
-  <si>
-    <t>nathaliasg.fr@hotmail.com</t>
-  </si>
-  <si>
-    <t>ferrerinsp@gmail.com</t>
-  </si>
-  <si>
-    <t>pedro_augusto27@hotmail.com</t>
-  </si>
-  <si>
-    <t>lacianelli@hotmail.com</t>
-  </si>
-  <si>
-    <t>tom.kroeker@enbridge.com</t>
-  </si>
-  <si>
-    <t>chaboki.ali@gmail.com</t>
-  </si>
-  <si>
-    <t>paul.burton@opg.com</t>
-  </si>
-  <si>
-    <t>vanderlei_nogueira@hotmail.com</t>
-  </si>
-  <si>
-    <t>Vptamy@gmail.com</t>
-  </si>
-  <si>
-    <t>brunoinsp@hotmail.com</t>
-  </si>
-  <si>
-    <t>felipe@orionsic.com.br</t>
-  </si>
-  <si>
-    <t>diegom.silva@outlook.com</t>
-  </si>
-  <si>
-    <t>sa-jailson@hotmail.com</t>
-  </si>
-  <si>
-    <t>rodrigostohler@gmail.com</t>
-  </si>
-  <si>
-    <t>yingsong.wu@applusrtd.com</t>
-  </si>
-  <si>
-    <t>jrhilson16@gmail.com</t>
-  </si>
-  <si>
-    <t>jackbloy@gmail.com</t>
-  </si>
-  <si>
-    <t>fqlara@gmail.com</t>
-  </si>
-  <si>
-    <t>gmalmeida@isgbrasil.com.br</t>
-  </si>
-  <si>
-    <t>annyscordeiro@gmail.com</t>
-  </si>
-  <si>
-    <t>oko.oono@gmail.com</t>
-  </si>
-  <si>
-    <t>mendoncalon@gmail.com</t>
-  </si>
-  <si>
-    <t>felipecadiente@gmail.com</t>
-  </si>
-  <si>
-    <t>soheyltahan@gmail.com</t>
-  </si>
-  <si>
-    <t>eric.scott999@gmail.com</t>
-  </si>
-  <si>
-    <t>marcelo.dimensional@gmail.com</t>
-  </si>
-  <si>
-    <t>xrayedit23@hotmail.com</t>
-  </si>
-  <si>
-    <t>mark.wainman@opg.com</t>
-  </si>
-  <si>
-    <t>christopher.wood@opg.com</t>
-  </si>
-  <si>
-    <t>frank.santana@opg.com</t>
-  </si>
-  <si>
-    <t>kejqual@telusplanet.net</t>
-  </si>
-  <si>
-    <t>bzieger@metalogicinspection.com</t>
-  </si>
-  <si>
-    <t>alex.butcher@brucepower.com</t>
-  </si>
-  <si>
-    <t>carlb.soares@live.com</t>
-  </si>
-  <si>
-    <t>marcus.accon@gmail.com</t>
-  </si>
-  <si>
-    <t>brock.vangaver@enbridge.com</t>
-  </si>
-  <si>
-    <t>bhardwajmehta22@gmail.com</t>
-  </si>
-  <si>
-    <t>blake.macpherson@enbridge.com</t>
-  </si>
-  <si>
-    <t>Ben.Ren@cnrl.com</t>
-  </si>
-  <si>
-    <t>lcsouza97@gmail.com</t>
-  </si>
-  <si>
-    <t>bernardes.inspecoes@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A244"/>
+  <dimension ref="A1:A267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2303,6 +2372,121 @@
         <v>243</v>
       </c>
     </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
+        <v>266</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mysite/hello.xlsx
+++ b/mysite/hello.xlsx
@@ -31,13 +31,13 @@
     <t>robert.hindle@brucepower.com</t>
   </si>
   <si>
+    <t>peter.flaman@enbridge.com</t>
+  </si>
+  <si>
+    <t>brunobandeiram@hotmail.com</t>
+  </si>
+  <si>
     <t>adam.watkins@enbridge.com</t>
-  </si>
-  <si>
-    <t>brunobandeiram@hotmail.com</t>
-  </si>
-  <si>
-    <t>peter.flaman@enbridge.com</t>
   </si>
   <si>
     <t>huibin.hu@brucepower.com</t>
